--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,29 +2284,21 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>31090</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2337,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2346,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2382,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2391,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2436,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2472,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2481,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2517,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2526,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2562,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2571,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2607,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2616,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2652,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2661,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2697,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2706,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2742,7 +2734,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2751,12 +2743,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2796,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2832,7 +2824,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2841,12 +2833,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,7 +2869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2886,12 +2878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2931,12 +2923,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2976,12 +2968,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3012,7 +3004,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3021,12 +3013,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3066,12 +3058,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3102,7 +3094,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3111,12 +3103,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3147,7 +3139,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3156,12 +3148,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3192,7 +3184,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3201,12 +3193,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3237,7 +3229,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3246,12 +3238,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3282,7 +3274,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3291,12 +3283,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3327,7 +3319,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3372,7 +3364,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3381,12 +3373,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3417,7 +3409,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3426,12 +3418,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3462,7 +3454,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3471,12 +3463,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3507,7 +3499,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,12 +3508,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3552,7 +3544,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3597,7 +3589,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3606,12 +3598,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3642,7 +3634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3651,12 +3643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3679,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3696,12 +3688,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3732,7 +3724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3741,12 +3733,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3777,7 +3769,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3786,12 +3778,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3817,12 +3809,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3831,12 +3823,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3867,7 +3859,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3876,12 +3868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3912,7 +3904,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3957,7 +3949,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3966,12 +3958,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4002,7 +3994,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4011,12 +4003,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4056,12 +4048,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4092,7 +4084,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4101,12 +4093,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4137,7 +4129,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4146,12 +4138,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4191,12 +4183,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4227,7 +4219,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4236,12 +4228,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4272,7 +4264,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4281,12 +4273,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4317,7 +4309,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4326,12 +4318,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4362,7 +4354,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4371,12 +4363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4416,12 +4408,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4444,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4453,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,21 +4489,29 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,21 +5352,29 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>85510</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5397,7 +5405,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5414,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5450,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5459,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5487,7 +5495,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5504,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5532,7 +5540,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5549,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5585,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5594,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5630,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5639,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5675,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5684,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5720,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5729,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5765,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5774,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5797,12 +5805,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5819,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5855,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5864,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5900,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5909,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5945,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5954,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5990,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5999,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6036,12 +6044,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6080,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6089,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6125,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6134,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6170,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6179,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,7 +6215,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6216,12 +6224,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6260,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6269,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6297,7 +6305,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6306,12 +6314,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6337,34 +6345,26 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>43210,47540</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6404,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,29 +6530,21 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46190</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6583,7 +6575,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6592,12 +6584,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6628,7 +6620,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6637,12 +6629,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6673,7 +6665,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6682,12 +6674,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6713,26 +6705,34 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6772,12 +6772,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6817,12 +6817,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6848,34 +6848,26 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>43999</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6906,7 +6898,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6915,12 +6907,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6951,7 +6943,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6960,12 +6952,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6996,7 +6988,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -7005,12 +6997,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7041,7 +7033,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7050,12 +7042,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7086,29 +7078,21 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>73110</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7139,7 +7123,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7148,12 +7132,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7184,7 +7168,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7193,12 +7177,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7229,7 +7213,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7238,12 +7222,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7274,7 +7258,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7283,12 +7267,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7319,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7328,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7364,7 +7348,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7373,12 +7357,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7409,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7418,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7454,7 +7438,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7463,12 +7447,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7499,7 +7483,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7508,12 +7492,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7544,7 +7528,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7553,12 +7537,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7589,7 +7573,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7598,12 +7582,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7629,12 +7613,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7643,12 +7627,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7679,7 +7663,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7688,12 +7672,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7724,7 +7708,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7733,12 +7717,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7769,7 +7753,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7778,12 +7762,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7814,7 +7798,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7823,12 +7807,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7859,7 +7843,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7868,12 +7852,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7904,7 +7888,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7913,12 +7897,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7949,7 +7933,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7958,12 +7942,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7994,7 +7978,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8003,12 +7987,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8039,7 +8023,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8048,12 +8032,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8093,12 +8077,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8129,7 +8113,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8138,12 +8122,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8174,7 +8158,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8183,12 +8167,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8219,7 +8203,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8228,12 +8212,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8264,29 +8248,21 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47910,74100</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8317,7 +8293,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8326,12 +8302,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8362,7 +8338,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8371,12 +8347,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8407,7 +8383,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8416,12 +8392,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8452,7 +8428,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8461,12 +8437,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8497,7 +8473,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8506,12 +8482,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8542,7 +8518,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8551,12 +8527,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8587,7 +8563,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8596,12 +8572,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8632,7 +8608,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8641,12 +8617,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8677,21 +8653,29 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>73110</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8722,7 +8706,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8731,12 +8715,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8767,7 +8751,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8776,12 +8760,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8812,7 +8796,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8821,12 +8805,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8857,7 +8841,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8866,12 +8850,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8897,26 +8881,34 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>43999</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8947,7 +8939,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8956,12 +8948,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8992,7 +8984,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9001,12 +8993,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9037,7 +9029,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9046,12 +9038,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9077,34 +9069,26 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56102,88910</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9135,7 +9119,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9144,12 +9128,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9180,7 +9164,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9189,12 +9173,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9225,21 +9209,29 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9270,7 +9262,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9279,12 +9271,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9315,7 +9307,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9324,12 +9316,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9360,7 +9352,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9369,12 +9361,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9400,26 +9392,34 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9459,12 +9459,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,21 +2329,29 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,7 +2382,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2391,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2428,12 +2436,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2472,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2481,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2517,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2526,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2562,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2571,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2607,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2616,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2652,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2661,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2697,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2706,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,7 +2742,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2743,12 +2751,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2796,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2814,7 +2822,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2824,7 +2832,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2833,12 +2841,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2869,7 +2877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2878,12 +2886,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2923,12 +2931,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3004,7 +3012,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3013,12 +3021,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3058,12 +3066,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3094,7 +3102,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3103,12 +3111,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3139,7 +3147,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,12 +3156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3184,7 +3192,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3193,12 +3201,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3229,7 +3237,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3238,12 +3246,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3274,7 +3282,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3283,12 +3291,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3319,7 +3327,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3328,12 +3336,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3409,7 +3417,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3418,12 +3426,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3463,12 +3471,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3508,12 +3516,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3544,7 +3552,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3553,12 +3561,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3589,7 +3597,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3598,12 +3606,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3643,12 +3651,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3679,7 +3687,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3688,12 +3696,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3733,12 +3741,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3769,7 +3777,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3778,12 +3786,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3809,12 +3817,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,12 +3831,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3859,7 +3867,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3868,12 +3876,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3904,7 +3912,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3913,12 +3921,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3958,12 +3966,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3994,7 +4002,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4003,12 +4011,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4048,12 +4056,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4093,12 +4101,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4129,7 +4137,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4138,12 +4146,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4174,7 +4182,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4183,12 +4191,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4264,7 +4272,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4273,12 +4281,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4309,7 +4317,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4318,12 +4326,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4354,7 +4362,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4363,12 +4371,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4399,7 +4407,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4408,12 +4416,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4444,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4453,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4489,29 +4497,21 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>31090</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4641,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,17 +5001,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,29 +5352,21 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46900</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5405,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5414,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5450,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5459,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5495,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5504,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5540,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5549,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5585,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5594,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5630,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5639,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5675,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5684,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5720,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5729,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5765,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5774,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5805,12 +5797,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5819,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5855,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5864,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5900,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5909,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5945,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5954,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5990,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5999,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6035,7 +6027,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6044,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6080,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6089,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6125,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6134,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6170,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6179,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6215,7 +6207,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6224,12 +6216,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6260,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6269,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6305,7 +6297,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6314,12 +6306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6350,7 +6342,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6359,12 +6351,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6390,26 +6382,34 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6539,12 +6539,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6575,21 +6575,29 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6620,7 +6628,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6629,12 +6637,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6665,7 +6673,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6674,12 +6682,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6705,34 +6713,26 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45310,46420,47910</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6772,12 +6772,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6817,12 +6817,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6862,12 +6862,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6893,26 +6893,34 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>47190</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6943,7 +6951,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6952,12 +6960,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6988,7 +6996,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6997,12 +7005,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7033,7 +7041,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7042,12 +7050,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,7 +7086,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7087,12 +7095,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7123,21 +7131,29 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>71112</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7168,7 +7184,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7177,12 +7193,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,7 +7229,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7222,12 +7238,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,7 +7274,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7267,12 +7283,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,7 +7319,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7312,12 +7328,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7348,7 +7364,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7357,12 +7373,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7393,7 +7409,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7402,12 +7418,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7438,7 +7454,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7447,12 +7463,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7483,7 +7499,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7492,12 +7508,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7528,7 +7544,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7537,12 +7553,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7573,7 +7589,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7582,12 +7598,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7618,7 +7634,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7627,12 +7643,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7658,12 +7674,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7672,12 +7688,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7708,7 +7724,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7717,12 +7733,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7753,7 +7769,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7762,12 +7778,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7798,7 +7814,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7807,12 +7823,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7843,7 +7859,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7852,12 +7868,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7888,7 +7904,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7897,12 +7913,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7933,7 +7949,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7942,12 +7958,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7978,7 +7994,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7987,12 +8003,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8023,7 +8039,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8032,12 +8048,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8068,7 +8084,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8077,12 +8093,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8113,21 +8129,29 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>56102</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8158,7 +8182,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8167,12 +8191,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8203,7 +8227,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8212,12 +8236,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8248,7 +8272,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8257,12 +8281,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8293,7 +8317,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8302,12 +8326,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8338,7 +8362,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8347,12 +8371,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8392,12 +8416,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8428,7 +8452,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8437,12 +8461,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8473,7 +8497,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8482,12 +8506,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8518,7 +8542,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8527,12 +8551,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8563,7 +8587,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8572,12 +8596,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8608,7 +8632,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8617,12 +8641,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8653,29 +8677,21 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47750</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8706,7 +8722,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8715,12 +8731,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8751,7 +8767,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8760,12 +8776,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8796,7 +8812,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8805,12 +8821,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8841,7 +8857,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8850,12 +8866,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8881,34 +8897,26 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8939,7 +8947,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8948,12 +8956,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8984,7 +8992,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8993,12 +9001,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9029,7 +9037,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9038,12 +9046,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9074,7 +9082,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9083,12 +9091,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9114,26 +9122,34 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>43341</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9164,7 +9180,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9173,12 +9189,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9209,29 +9225,21 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45200</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9262,7 +9270,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9271,12 +9279,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9307,7 +9315,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9316,12 +9324,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9352,7 +9360,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9361,12 +9369,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9392,34 +9400,26 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>86230</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9459,12 +9459,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9504,12 +9504,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9540,11 +9540,56 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>MONCHERRI LTD</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>16473339</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>14142,46420,47710</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,29 +2329,21 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>31090</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2382,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2391,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2436,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2472,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2481,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2517,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2526,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2562,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2571,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2607,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2616,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2652,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2661,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2697,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2706,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2742,7 +2734,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2751,12 +2743,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2796,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2822,7 +2814,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2832,7 +2824,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2841,12 +2833,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,7 +2869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2886,12 +2878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2931,12 +2923,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2976,12 +2968,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3012,7 +3004,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3021,12 +3013,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3066,12 +3058,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3102,7 +3094,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3111,12 +3103,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3147,7 +3139,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3156,12 +3148,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3192,7 +3184,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3201,12 +3193,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3237,7 +3229,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3246,12 +3238,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3282,7 +3274,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3291,12 +3283,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3327,7 +3319,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3372,7 +3364,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3381,12 +3373,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3417,7 +3409,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3426,12 +3418,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3462,7 +3454,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3471,12 +3463,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3507,7 +3499,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,12 +3508,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3552,7 +3544,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3597,7 +3589,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3606,12 +3598,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3642,7 +3634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3651,12 +3643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3679,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3696,12 +3688,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3732,7 +3724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3741,12 +3733,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3777,7 +3769,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3786,12 +3778,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3817,12 +3809,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3831,12 +3823,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3867,7 +3859,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3876,12 +3868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3912,7 +3904,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3957,7 +3949,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3966,12 +3958,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4002,7 +3994,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4011,12 +4003,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4056,12 +4048,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4092,7 +4084,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4101,12 +4093,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4137,7 +4129,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4146,12 +4138,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4191,12 +4183,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4227,7 +4219,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4236,12 +4228,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4272,7 +4264,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4281,12 +4273,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4317,7 +4309,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4326,12 +4318,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4371,12 +4363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4407,7 +4399,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4416,12 +4408,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,21 +4444,29 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4897,12 +4897,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5397,21 +5397,29 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>56102</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5450,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5459,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5487,7 +5495,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5504,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5532,7 +5540,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5549,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5585,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5594,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5630,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5639,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5675,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5684,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5720,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5729,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5765,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5774,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5797,12 +5805,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5819,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5855,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5864,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5900,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5909,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5945,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5954,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5990,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5999,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,7 +6035,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6044,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6080,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6089,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6125,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6134,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6170,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6179,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,7 +6215,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6216,12 +6224,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6260,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6269,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6297,7 +6305,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6306,12 +6314,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6342,7 +6350,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6351,12 +6359,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6382,34 +6390,26 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>86230</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6539,12 +6539,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6575,29 +6575,21 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45200</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6628,7 +6620,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6637,12 +6629,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6668,26 +6660,34 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>43341</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6727,12 +6727,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6772,12 +6772,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6817,12 +6817,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6862,12 +6862,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6893,34 +6893,26 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6951,7 +6943,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6960,12 +6952,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6996,7 +6988,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -7005,12 +6997,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7041,7 +7033,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7050,12 +7042,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7086,7 +7078,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7095,12 +7087,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7131,29 +7123,21 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47750</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7184,7 +7168,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7193,12 +7177,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7229,7 +7213,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7238,12 +7222,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7274,7 +7258,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7283,12 +7267,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7319,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7328,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7364,7 +7348,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7373,12 +7357,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7409,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7418,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7454,7 +7438,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7463,12 +7447,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7499,7 +7483,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7508,12 +7492,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7544,7 +7528,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7553,12 +7537,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7589,7 +7573,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7598,12 +7582,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7634,7 +7618,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7643,12 +7627,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7674,12 +7658,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7688,12 +7672,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7724,7 +7708,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7733,12 +7717,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7769,7 +7753,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7778,12 +7762,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7814,7 +7798,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7823,12 +7807,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7859,7 +7843,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7868,12 +7852,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7904,7 +7888,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7913,12 +7897,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7949,7 +7933,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7958,12 +7942,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7994,7 +7978,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8003,12 +7987,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8039,7 +8023,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8048,12 +8032,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8084,7 +8068,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8093,12 +8077,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8129,29 +8113,21 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46900</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8182,7 +8158,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8191,12 +8167,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8227,7 +8203,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8236,12 +8212,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8272,7 +8248,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8281,12 +8257,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8317,7 +8293,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8326,12 +8302,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8362,7 +8338,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8371,12 +8347,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8407,7 +8383,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8416,12 +8392,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8452,7 +8428,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8461,12 +8437,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8497,7 +8473,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8506,12 +8482,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8542,7 +8518,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8551,12 +8527,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8587,7 +8563,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8596,12 +8572,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8632,7 +8608,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8641,12 +8617,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8677,7 +8653,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8686,12 +8662,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8722,21 +8698,29 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>71112</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8767,7 +8751,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8776,12 +8760,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8812,7 +8796,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8821,12 +8805,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8857,7 +8841,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8866,12 +8850,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8902,7 +8886,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8911,12 +8895,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8942,26 +8926,34 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>47190</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8992,7 +8984,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9001,12 +8993,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9037,7 +9029,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9046,12 +9038,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9082,7 +9074,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9091,12 +9083,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9122,34 +9114,26 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45310,46420,47910</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9180,7 +9164,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9189,12 +9173,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9225,7 +9209,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9234,12 +9218,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9270,21 +9254,29 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9315,7 +9307,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9324,12 +9316,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9360,7 +9352,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9369,12 +9361,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9405,7 +9397,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9414,12 +9406,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9445,26 +9437,34 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9504,12 +9504,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,21 +2374,29 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2427,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2436,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2473,12 +2481,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2517,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2526,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2562,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2571,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2607,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2616,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2652,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2661,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2697,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2706,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,7 +2742,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2743,12 +2751,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2796,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2824,7 +2832,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2833,12 +2841,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2869,7 +2877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2878,12 +2886,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2923,12 +2931,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3004,7 +3012,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3013,12 +3021,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3058,12 +3066,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3094,7 +3102,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3103,12 +3111,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3139,7 +3147,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,12 +3156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3184,7 +3192,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3193,12 +3201,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3229,7 +3237,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3238,12 +3246,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3274,7 +3282,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3283,12 +3291,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3319,7 +3327,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3328,12 +3336,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3409,7 +3417,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3418,12 +3426,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3463,12 +3471,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3508,12 +3516,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3544,7 +3552,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3553,12 +3561,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3589,7 +3597,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3598,12 +3606,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3643,12 +3651,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3679,7 +3687,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3688,12 +3696,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3733,12 +3741,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3769,7 +3777,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3778,12 +3786,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3809,12 +3817,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,12 +3831,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3859,7 +3867,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3868,12 +3876,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3904,7 +3912,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3913,12 +3921,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3958,12 +3966,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3984,7 +3992,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3994,7 +4002,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4003,12 +4011,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4048,12 +4056,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4093,12 +4101,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4129,7 +4137,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4138,12 +4146,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4174,7 +4182,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4183,12 +4191,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4264,7 +4272,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4273,12 +4281,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4309,7 +4317,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4318,12 +4326,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4354,7 +4362,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4363,12 +4371,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4399,7 +4407,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4408,12 +4416,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4444,29 +4452,21 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>31090</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4596,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4897,12 +4897,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5397,29 +5397,21 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46900</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5450,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5459,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5495,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5504,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5540,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5549,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5585,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5594,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5630,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5639,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5675,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5684,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5720,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5729,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5765,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5774,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5805,12 +5797,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5819,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5855,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5864,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5900,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5909,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5945,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5954,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5990,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5999,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6035,7 +6027,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6044,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6080,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6089,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6125,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6134,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6170,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6179,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6215,7 +6207,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6224,12 +6216,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6260,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6269,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6305,7 +6297,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6314,12 +6306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6345,26 +6337,34 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6404,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,21 +6530,29 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6575,7 +6583,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6584,12 +6592,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6620,7 +6628,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6629,12 +6637,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6660,34 +6668,26 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45310,46420,47910</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6727,12 +6727,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6772,12 +6772,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6817,12 +6817,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6848,26 +6848,34 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>47190</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6898,7 +6906,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6907,12 +6915,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6943,7 +6951,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6952,12 +6960,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6988,7 +6996,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6997,12 +7005,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7033,7 +7041,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7042,12 +7050,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,21 +7086,29 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>71112</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7123,7 +7139,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7132,12 +7148,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7168,7 +7184,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7177,12 +7193,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,7 +7229,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7222,12 +7238,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,7 +7274,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7267,12 +7283,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,7 +7319,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7312,12 +7328,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7348,7 +7364,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7357,12 +7373,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7393,7 +7409,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7402,12 +7418,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7438,7 +7454,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7447,12 +7463,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7483,7 +7499,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7492,12 +7508,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7528,7 +7544,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7537,12 +7553,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7573,7 +7589,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7582,12 +7598,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7618,7 +7634,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7627,12 +7643,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7658,12 +7674,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7672,12 +7688,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7708,7 +7724,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7717,12 +7733,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7753,7 +7769,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7762,12 +7778,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7798,7 +7814,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7807,12 +7823,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7843,7 +7859,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7852,12 +7868,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7888,7 +7904,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7897,12 +7913,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7933,7 +7949,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7942,12 +7958,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7978,7 +7994,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7987,12 +8003,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8023,7 +8039,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8032,12 +8048,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8068,21 +8084,29 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>56102</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8113,7 +8137,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8122,12 +8146,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8158,7 +8182,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8167,12 +8191,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8203,7 +8227,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8212,12 +8236,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8248,7 +8272,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8257,12 +8281,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8293,7 +8317,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8302,12 +8326,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8347,12 +8371,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8383,7 +8407,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8392,12 +8416,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8428,7 +8452,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8437,12 +8461,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8473,7 +8497,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8482,12 +8506,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8518,7 +8542,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8527,12 +8551,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8563,7 +8587,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8572,12 +8596,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8608,7 +8632,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8617,12 +8641,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8653,7 +8677,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8662,12 +8686,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8698,29 +8722,21 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47750</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8751,7 +8767,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8760,12 +8776,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8796,7 +8812,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8805,12 +8821,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8841,7 +8857,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8850,12 +8866,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8886,7 +8902,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8895,12 +8911,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8926,34 +8942,26 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8984,7 +8992,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8993,12 +9001,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9029,7 +9037,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9038,12 +9046,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9074,7 +9082,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9083,12 +9091,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9119,7 +9127,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9128,12 +9136,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9159,26 +9167,34 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>43341</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9209,7 +9225,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9218,12 +9234,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9254,29 +9270,21 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45200</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9307,7 +9315,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9316,12 +9324,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9352,7 +9360,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9361,12 +9369,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9397,7 +9405,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9406,12 +9414,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9437,34 +9445,26 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>86230</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9504,12 +9504,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,29 +2374,21 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>31090</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2436,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2472,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2481,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2517,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2526,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2562,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2571,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2607,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2616,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2652,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2661,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2697,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2706,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2742,7 +2734,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2751,12 +2743,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2796,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2832,7 +2824,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2841,12 +2833,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,7 +2869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2886,12 +2878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2931,12 +2923,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2976,12 +2968,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3012,7 +3004,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3021,12 +3013,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3066,12 +3058,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3102,7 +3094,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3111,12 +3103,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3147,7 +3139,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3156,12 +3148,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3192,7 +3184,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3201,12 +3193,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3237,7 +3229,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3246,12 +3238,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3282,7 +3274,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3291,12 +3283,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3327,7 +3319,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3372,7 +3364,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3381,12 +3373,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3417,7 +3409,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3426,12 +3418,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3462,7 +3454,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3471,12 +3463,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3507,7 +3499,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,12 +3508,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3552,7 +3544,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3597,7 +3589,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3606,12 +3598,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3642,7 +3634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3651,12 +3643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3679,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3696,12 +3688,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3732,7 +3724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3741,12 +3733,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3777,7 +3769,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3786,12 +3778,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3817,12 +3809,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3831,12 +3823,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3867,7 +3859,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3876,12 +3868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3912,7 +3904,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3957,7 +3949,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3966,12 +3958,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3992,7 +3984,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4002,7 +3994,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4011,12 +4003,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4056,12 +4048,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4092,7 +4084,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4101,12 +4093,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4137,7 +4129,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4146,12 +4138,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4191,12 +4183,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4227,7 +4219,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4236,12 +4228,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4272,7 +4264,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4281,12 +4273,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4326,12 +4318,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4362,7 +4354,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4371,12 +4363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4407,21 +4399,29 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,21 +5442,29 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>56102</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5487,7 +5495,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5504,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5532,7 +5540,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5549,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5585,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5594,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5630,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5639,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5675,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5684,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5720,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5729,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5765,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5774,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5797,12 +5805,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5819,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5855,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5864,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5900,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5909,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5945,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5954,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5990,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5999,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,7 +6035,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6044,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6080,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6089,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6125,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6134,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6170,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6179,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,7 +6215,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6216,12 +6224,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6260,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6269,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6297,7 +6305,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6306,12 +6314,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6337,34 +6345,26 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>86230</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6404,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,29 +6530,21 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45200</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6583,7 +6575,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6592,12 +6584,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6623,26 +6615,34 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>43341</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6682,12 +6682,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6727,12 +6727,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6772,12 +6772,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6817,12 +6817,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6848,34 +6848,26 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6906,7 +6898,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6915,12 +6907,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6951,7 +6943,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6960,12 +6952,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6996,7 +6988,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -7005,12 +6997,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7041,7 +7033,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7050,12 +7042,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7086,29 +7078,21 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47750</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7139,7 +7123,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7148,12 +7132,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7184,7 +7168,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7193,12 +7177,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7229,7 +7213,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7238,12 +7222,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7274,7 +7258,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7283,12 +7267,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7319,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7328,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7364,7 +7348,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7373,12 +7357,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7409,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7418,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7454,7 +7438,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7463,12 +7447,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7499,7 +7483,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7508,12 +7492,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7544,7 +7528,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7553,12 +7537,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7589,7 +7573,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7598,12 +7582,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7634,7 +7618,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7643,12 +7627,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7674,12 +7658,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7688,12 +7672,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7724,7 +7708,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7733,12 +7717,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7769,7 +7753,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7778,12 +7762,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7814,7 +7798,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7823,12 +7807,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7859,7 +7843,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7868,12 +7852,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7904,7 +7888,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7913,12 +7897,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7949,7 +7933,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7958,12 +7942,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7994,7 +7978,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8003,12 +7987,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8039,7 +8023,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8048,12 +8032,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8084,29 +8068,21 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46900</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8137,7 +8113,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8146,12 +8122,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8182,7 +8158,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8191,12 +8167,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8227,7 +8203,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8236,12 +8212,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8272,7 +8248,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8281,12 +8257,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8317,7 +8293,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8326,12 +8302,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8362,7 +8338,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8371,12 +8347,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8407,7 +8383,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8416,12 +8392,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8452,7 +8428,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8461,12 +8437,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8497,7 +8473,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8506,12 +8482,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8542,7 +8518,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8551,12 +8527,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8587,7 +8563,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8596,12 +8572,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8632,7 +8608,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8641,12 +8617,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8677,7 +8653,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8686,12 +8662,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8722,7 +8698,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8731,12 +8707,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8767,21 +8743,29 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>71112</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8812,7 +8796,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8821,12 +8805,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8857,7 +8841,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8866,12 +8850,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8902,7 +8886,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8911,12 +8895,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8947,7 +8931,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8956,12 +8940,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8987,26 +8971,34 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>47190</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9037,7 +9029,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9046,12 +9038,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9082,7 +9074,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9091,12 +9083,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9127,7 +9119,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9136,12 +9128,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9167,34 +9159,26 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45310,46420,47910</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9225,7 +9209,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9234,12 +9218,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9270,7 +9254,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9279,12 +9263,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9315,21 +9299,29 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9360,7 +9352,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9369,12 +9361,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9405,7 +9397,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9414,12 +9406,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9450,7 +9442,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9459,12 +9451,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9490,26 +9482,34 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K202"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,21 +2644,29 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>47630</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2697,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2706,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,7 +2742,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2743,12 +2751,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2796,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2824,7 +2832,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2833,12 +2841,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2869,7 +2877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2878,12 +2886,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2904,7 +2912,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2923,12 +2931,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3004,7 +3012,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3013,12 +3021,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3058,12 +3066,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3094,7 +3102,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3103,12 +3111,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3139,7 +3147,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,12 +3156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3184,7 +3192,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3193,12 +3201,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3229,7 +3237,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3238,12 +3246,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3274,7 +3282,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3283,12 +3291,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3319,7 +3327,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3328,12 +3336,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3409,7 +3417,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3418,12 +3426,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3463,12 +3471,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3508,12 +3516,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3544,7 +3552,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3553,12 +3561,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3589,7 +3597,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3598,12 +3606,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3643,12 +3651,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3679,7 +3687,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3688,12 +3696,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3733,12 +3741,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3769,7 +3777,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3778,12 +3786,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3809,12 +3817,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,12 +3831,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3859,7 +3867,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3868,12 +3876,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3904,7 +3912,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3913,12 +3921,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3958,12 +3966,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3994,7 +4002,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4003,12 +4011,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4048,12 +4056,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4074,7 +4082,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4093,12 +4101,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4129,7 +4137,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4138,12 +4146,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4174,7 +4182,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4183,12 +4191,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4264,7 +4272,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4273,12 +4281,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4309,7 +4317,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4318,12 +4326,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4354,7 +4362,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4363,12 +4371,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4399,29 +4407,21 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56102</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,17 +5046,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,17 +5091,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,17 +5136,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,17 +5181,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,29 +5442,21 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47610</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5495,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5504,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5540,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5549,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5585,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5594,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5630,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5639,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5675,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5684,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5720,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5729,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5765,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5774,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5805,12 +5797,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5819,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5855,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5864,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5900,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5909,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5945,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5954,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5990,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5999,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6044,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6080,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6089,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6125,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6134,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6170,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6179,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6215,7 +6207,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6224,12 +6216,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6260,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6269,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6305,7 +6297,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6314,12 +6306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6350,7 +6342,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6359,12 +6351,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6387,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6396,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6432,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6441,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6477,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6486,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,7 +6522,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6539,12 +6531,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6570,26 +6562,34 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>49320</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6615,34 +6615,26 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>86900</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6673,7 +6665,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6682,12 +6674,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6718,7 +6710,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6727,12 +6719,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6763,21 +6755,29 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>43991</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6817,12 +6817,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6862,12 +6862,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6907,12 +6907,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6952,12 +6952,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6997,12 +6997,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7028,26 +7028,34 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>71112</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,7 +7086,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7087,12 +7095,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7123,7 +7131,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7132,12 +7140,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7168,7 +7176,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7177,12 +7185,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,7 +7221,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7222,12 +7230,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,21 +7266,29 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>53202</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,7 +7319,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7312,12 +7328,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7348,7 +7364,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7357,12 +7373,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7393,7 +7409,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7402,12 +7418,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7438,7 +7454,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7447,12 +7463,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7483,7 +7499,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7492,12 +7508,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7528,7 +7544,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7537,12 +7553,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7573,7 +7589,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7582,12 +7598,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7618,7 +7634,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7627,12 +7643,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7663,7 +7679,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7672,12 +7688,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7708,7 +7724,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7717,12 +7733,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7753,7 +7769,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7762,12 +7778,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7798,7 +7814,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7807,12 +7823,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7838,12 +7854,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7852,12 +7868,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7888,7 +7904,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7897,12 +7913,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7933,7 +7949,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7942,12 +7958,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7978,7 +7994,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7987,12 +8003,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8023,7 +8039,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8032,12 +8048,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8068,7 +8084,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8077,12 +8093,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8113,7 +8129,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8122,12 +8138,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8158,7 +8174,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8167,12 +8183,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8203,21 +8219,29 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>70229</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8248,7 +8272,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8257,12 +8281,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8293,7 +8317,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8302,12 +8326,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8338,7 +8362,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8347,12 +8371,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8383,7 +8407,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8392,12 +8416,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8428,7 +8452,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8437,12 +8461,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8473,7 +8497,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8482,12 +8506,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8518,7 +8542,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8527,12 +8551,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8563,7 +8587,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8572,12 +8596,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8608,7 +8632,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8617,12 +8641,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8653,7 +8677,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8662,12 +8686,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8698,7 +8722,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8707,12 +8731,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8743,29 +8767,21 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>86220</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8796,7 +8812,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8805,12 +8821,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8841,7 +8857,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8850,12 +8866,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8886,7 +8902,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8895,12 +8911,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8931,7 +8947,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8940,12 +8956,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8971,34 +8987,26 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>47750</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9029,7 +9037,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9038,12 +9046,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9074,7 +9082,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9083,12 +9091,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9119,7 +9127,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9128,12 +9136,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9164,7 +9172,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9173,12 +9181,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9209,7 +9217,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9218,12 +9226,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9254,7 +9262,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9263,12 +9271,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9299,29 +9307,21 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>43991</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9361,12 +9361,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9406,12 +9406,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9437,26 +9437,34 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>86900</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9482,34 +9490,26 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>49320</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9549,12 +9549,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9585,11 +9585,191 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>SILENTSTACKS LIMITED</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>16473308</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>46190</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>FORSTER PRODUCTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>16473303</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>90010</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>S SINGH BUILDER LTD</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>16473306</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>41202</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ERSA MEDICAL UK LTD</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>16473148</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>46900,47749</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,29 +2644,21 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56102</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2697,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2706,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2742,7 +2734,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2751,12 +2743,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2796,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2832,7 +2824,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2841,12 +2833,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,7 +2869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2886,12 +2878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2912,7 +2904,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2931,12 +2923,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2976,12 +2968,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3012,7 +3004,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3021,12 +3013,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3066,12 +3058,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3102,7 +3094,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3111,12 +3103,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3147,7 +3139,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3156,12 +3148,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3192,7 +3184,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3201,12 +3193,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3237,7 +3229,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3246,12 +3238,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3282,7 +3274,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3291,12 +3283,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3327,7 +3319,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3372,7 +3364,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3381,12 +3373,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3417,7 +3409,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3426,12 +3418,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3462,7 +3454,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3471,12 +3463,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3507,7 +3499,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,12 +3508,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3552,7 +3544,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3597,7 +3589,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3606,12 +3598,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3642,7 +3634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3651,12 +3643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3679,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3696,12 +3688,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3732,7 +3724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3741,12 +3733,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3777,7 +3769,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3786,12 +3778,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3822,7 +3814,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3831,12 +3823,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3862,12 +3854,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3876,12 +3868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3912,7 +3904,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3957,7 +3949,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3966,12 +3958,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4002,7 +3994,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4011,12 +4003,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4056,12 +4048,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4082,7 +4074,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4092,7 +4084,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4101,12 +4093,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4137,7 +4129,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4146,12 +4138,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4191,12 +4183,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4227,7 +4219,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4236,12 +4228,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4272,7 +4264,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4281,12 +4273,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4317,7 +4309,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4326,12 +4318,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4362,7 +4354,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4371,12 +4363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4407,21 +4399,29 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>56102</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4762,12 +4762,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,21 +5667,29 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5720,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5729,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5765,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5774,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5802,7 +5810,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5819,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5855,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5864,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5900,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5909,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5945,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5954,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5990,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5999,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6022,12 +6030,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6044,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6080,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6089,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6125,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6134,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6170,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6179,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,7 +6215,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6216,12 +6224,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6260,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6269,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6297,7 +6305,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6306,12 +6314,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6342,7 +6350,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6351,12 +6359,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6387,7 +6395,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6396,12 +6404,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6432,7 +6440,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6441,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6477,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6486,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6522,7 +6530,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6531,12 +6539,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6562,34 +6570,26 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>46190</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6629,12 +6629,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6674,12 +6674,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6719,12 +6719,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -6772,12 +6772,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6817,12 +6817,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6862,12 +6862,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6907,12 +6907,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6952,12 +6952,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6997,12 +6997,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7028,34 +7028,26 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>82990</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7086,7 +7078,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7095,12 +7087,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7131,7 +7123,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7140,12 +7132,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7176,7 +7168,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7185,12 +7177,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7221,7 +7213,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7230,12 +7222,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7266,29 +7258,21 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>90020</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7319,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7328,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7364,7 +7348,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7373,12 +7357,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7409,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7418,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7454,7 +7438,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7463,12 +7447,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7499,7 +7483,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7508,12 +7492,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7544,7 +7528,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7553,12 +7537,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7589,7 +7573,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7598,12 +7582,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7643,12 +7627,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7679,7 +7663,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7688,12 +7672,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7724,7 +7708,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7733,12 +7717,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7769,7 +7753,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7778,12 +7762,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7814,7 +7798,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7823,12 +7807,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7854,12 +7838,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7868,12 +7852,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7904,7 +7888,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7913,12 +7897,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7949,7 +7933,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7958,12 +7942,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7994,7 +7978,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8003,12 +7987,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8039,7 +8023,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8048,12 +8032,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8084,7 +8068,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8093,12 +8077,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8129,7 +8113,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8138,12 +8122,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8174,7 +8158,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8183,12 +8167,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8219,29 +8203,21 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47910,74100</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8272,7 +8248,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8281,12 +8257,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8317,7 +8293,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8326,12 +8302,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8362,7 +8338,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8371,12 +8347,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8407,7 +8383,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8416,12 +8392,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8452,7 +8428,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8461,12 +8437,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8506,12 +8482,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8542,7 +8518,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8551,12 +8527,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8587,7 +8563,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8596,12 +8572,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8632,7 +8608,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8641,12 +8617,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8686,12 +8662,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8722,7 +8698,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8731,12 +8707,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8767,7 +8743,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8776,12 +8752,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8812,7 +8788,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8821,12 +8797,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8857,7 +8833,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8866,12 +8842,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8902,7 +8878,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8911,12 +8887,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8947,21 +8923,29 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8992,7 +8976,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9001,12 +8985,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9037,7 +9021,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9046,12 +9030,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9082,7 +9066,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9091,12 +9075,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9127,7 +9111,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9136,12 +9120,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9167,26 +9151,34 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9217,7 +9209,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9226,12 +9218,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9262,7 +9254,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9271,12 +9263,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9307,7 +9299,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9316,12 +9308,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9352,7 +9344,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9361,12 +9353,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9397,7 +9389,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9406,12 +9398,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9437,7 +9429,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -9459,12 +9451,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9495,7 +9487,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9504,12 +9496,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9540,7 +9532,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9549,12 +9541,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9585,7 +9577,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9594,12 +9586,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9625,26 +9617,34 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>46190</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9684,12 +9684,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2279,12 +2279,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,21 +2644,29 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>56102</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2697,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2706,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,7 +2742,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2743,12 +2751,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2796,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2824,7 +2832,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2833,12 +2841,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2869,7 +2877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2878,12 +2886,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2923,12 +2931,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3004,7 +3012,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3013,12 +3021,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3058,12 +3066,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3094,7 +3102,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3103,12 +3111,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3139,7 +3147,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,12 +3156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3184,7 +3192,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3193,12 +3201,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3229,7 +3237,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3238,12 +3246,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3274,7 +3282,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3283,12 +3291,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3319,7 +3327,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3328,12 +3336,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3409,7 +3417,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3418,12 +3426,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3463,12 +3471,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3508,12 +3516,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3544,7 +3552,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3553,12 +3561,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3589,7 +3597,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3598,12 +3606,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3643,12 +3651,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3679,7 +3687,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3688,12 +3696,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3733,12 +3741,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3769,7 +3777,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3778,12 +3786,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3814,7 +3822,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,12 +3831,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3854,12 +3862,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3868,12 +3876,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3904,7 +3912,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3913,12 +3921,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3958,12 +3966,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3994,7 +4002,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4003,12 +4011,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4048,12 +4056,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4093,12 +4101,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4129,7 +4137,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4138,12 +4146,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4164,7 +4172,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4174,7 +4182,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4183,12 +4191,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4264,7 +4272,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4273,12 +4281,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4309,7 +4317,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4318,12 +4326,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4354,7 +4362,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4363,12 +4371,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4399,29 +4407,21 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56102</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,29 +5667,21 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47910,74100</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5729,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5765,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5774,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5810,7 +5802,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5819,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5855,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5864,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5900,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5909,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5945,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5954,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5990,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5999,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6030,12 +6022,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6044,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6080,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6089,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6125,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6134,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6170,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6179,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6215,7 +6207,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6224,12 +6216,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6260,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6269,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6300,26 +6292,34 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6359,12 +6359,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6404,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6539,12 +6539,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6570,26 +6570,34 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>46190</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6620,7 +6628,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6629,12 +6637,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6665,7 +6673,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6674,12 +6682,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6710,7 +6718,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6719,12 +6727,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6750,7 +6758,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -6772,12 +6780,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6808,7 +6816,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6817,12 +6825,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6853,7 +6861,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6862,12 +6870,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6898,7 +6906,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6907,12 +6915,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6943,7 +6951,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6952,12 +6960,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6988,7 +6996,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6997,12 +7005,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7033,7 +7041,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7042,12 +7050,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,7 +7086,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7087,12 +7095,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7123,7 +7131,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7132,12 +7140,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7168,7 +7176,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7177,12 +7185,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,21 +7221,29 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,7 +7274,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7267,12 +7283,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,7 +7319,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7312,12 +7328,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7348,7 +7364,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7357,12 +7373,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7393,7 +7409,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7402,12 +7418,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7438,7 +7454,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7447,12 +7463,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7483,7 +7499,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7492,12 +7508,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7528,7 +7544,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7537,12 +7553,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7573,7 +7589,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7582,12 +7598,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7618,7 +7634,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7627,12 +7643,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7663,7 +7679,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7672,12 +7688,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7708,7 +7724,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7717,12 +7733,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7753,7 +7769,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7762,12 +7778,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7793,12 +7809,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7807,12 +7823,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7843,7 +7859,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7852,12 +7868,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7888,7 +7904,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7897,12 +7913,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7933,7 +7949,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7942,12 +7958,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7978,7 +7994,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7987,12 +8003,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8023,7 +8039,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8032,12 +8048,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8068,7 +8084,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8077,12 +8093,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8113,7 +8129,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8122,12 +8138,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8158,21 +8174,29 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>68209</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8203,7 +8227,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8212,12 +8236,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8248,7 +8272,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8257,12 +8281,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8293,7 +8317,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8302,12 +8326,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8338,7 +8362,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8347,12 +8371,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8383,7 +8407,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8392,12 +8416,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8428,7 +8452,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8437,12 +8461,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8473,7 +8497,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8482,12 +8506,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8518,7 +8542,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8527,12 +8551,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8563,7 +8587,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8572,12 +8596,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8608,7 +8632,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8617,12 +8641,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8653,7 +8677,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8662,12 +8686,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8698,7 +8722,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8707,12 +8731,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8743,7 +8767,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8752,12 +8776,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8788,7 +8812,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8797,12 +8821,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8833,7 +8857,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8842,12 +8866,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8878,7 +8902,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8887,12 +8911,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8923,29 +8947,21 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>90020</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8976,7 +8992,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8985,12 +9001,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9021,7 +9037,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9030,12 +9046,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9066,7 +9082,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9075,12 +9091,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9111,7 +9127,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9120,12 +9136,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9151,34 +9167,26 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>82990</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9209,7 +9217,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9218,12 +9226,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9263,12 +9271,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9299,7 +9307,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9308,12 +9316,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9344,7 +9352,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9353,12 +9361,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9389,7 +9397,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9398,12 +9406,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9429,7 +9437,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -9451,12 +9459,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9487,7 +9495,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9496,12 +9504,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9532,7 +9540,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9541,12 +9549,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9577,7 +9585,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9586,12 +9594,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9617,34 +9625,26 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>46190</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9684,12 +9684,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>VILLAGE PIZZA HESSLE LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473971</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>TOFT &amp; WOHLLEBER LIMITED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473966</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>47591,96090</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2279,12 +2279,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,29 +2644,21 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56302</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2697,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2706,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2742,7 +2734,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2751,12 +2743,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2796,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2832,7 +2824,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2841,12 +2833,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,7 +2869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2886,12 +2878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2931,12 +2923,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2976,12 +2968,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>ASRO ACADEMY LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473968</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3002,7 +2994,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3012,7 +3004,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3021,12 +3013,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3066,12 +3058,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3102,7 +3094,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3111,12 +3103,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3147,7 +3139,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3156,12 +3148,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3192,7 +3184,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3201,12 +3193,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3237,7 +3229,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3246,12 +3238,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3282,7 +3274,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3291,12 +3283,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3327,7 +3319,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3372,7 +3364,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3381,12 +3373,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3417,7 +3409,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3426,12 +3418,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3462,7 +3454,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3471,12 +3463,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3507,7 +3499,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,12 +3508,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3552,7 +3544,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3597,7 +3589,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3606,12 +3598,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3642,7 +3634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3651,12 +3643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3679,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3696,12 +3688,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3732,7 +3724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3741,12 +3733,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3777,7 +3769,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3786,12 +3778,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3822,7 +3814,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3831,12 +3823,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3867,7 +3859,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3876,12 +3868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3912,7 +3904,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3957,7 +3949,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3966,12 +3958,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4002,7 +3994,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4011,12 +4003,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4056,12 +4048,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4092,7 +4084,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4101,12 +4093,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4132,12 +4124,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4146,12 +4138,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4172,7 +4164,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4191,12 +4183,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4227,7 +4219,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4236,12 +4228,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4272,7 +4264,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4281,12 +4273,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4317,7 +4309,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4326,12 +4318,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4362,7 +4354,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4371,12 +4363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4407,7 +4399,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4416,12 +4408,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4444,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4453,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4489,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4498,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4534,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4543,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4579,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4588,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4624,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4633,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,21 +4669,29 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>56302</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,17 +5226,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5271,17 +5271,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,17 +5316,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,17 +5361,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,17 +5406,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5432,17 +5432,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5811,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,21 +6027,29 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>14190</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6080,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6089,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6125,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6134,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6170,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6179,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,7 +6215,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6216,12 +6224,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6260,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6269,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6292,34 +6300,26 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>47910,47990</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6359,12 +6359,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6404,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6539,12 +6539,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6570,34 +6570,26 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>86220</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6628,7 +6620,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6637,12 +6629,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6673,7 +6665,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6682,12 +6674,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6718,7 +6710,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6727,12 +6719,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6763,29 +6755,21 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>90010</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6816,7 +6800,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6825,12 +6809,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6861,7 +6845,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6870,12 +6854,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6906,7 +6890,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6915,12 +6899,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6951,7 +6935,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6960,12 +6944,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6991,26 +6975,34 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>46900</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7041,7 +7033,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7050,12 +7042,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7086,7 +7078,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7095,12 +7087,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7131,7 +7123,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7140,12 +7132,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7176,7 +7168,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7185,12 +7177,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7221,29 +7213,21 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>82990</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7274,7 +7258,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7283,12 +7267,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7319,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7328,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7364,7 +7348,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7373,12 +7357,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7409,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7418,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7454,7 +7438,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7463,12 +7447,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7499,7 +7483,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7508,12 +7492,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7544,7 +7528,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7553,12 +7537,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7589,7 +7573,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7598,12 +7582,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7634,7 +7618,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7643,12 +7627,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7679,7 +7663,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7688,12 +7672,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7724,7 +7708,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7733,12 +7717,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7764,26 +7748,34 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>81210</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7809,12 +7801,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7823,12 +7815,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7859,7 +7851,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7868,12 +7860,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7904,7 +7896,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7913,12 +7905,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7949,7 +7941,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7958,12 +7950,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7994,7 +7986,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8003,12 +7995,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8039,7 +8031,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8048,12 +8040,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8084,7 +8076,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8093,12 +8085,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8129,7 +8121,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8138,12 +8130,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8174,29 +8166,21 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>62090,73110,74100</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8227,7 +8211,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8236,12 +8220,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8272,7 +8256,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8281,12 +8265,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8317,7 +8301,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8326,12 +8310,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8362,7 +8346,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8371,12 +8355,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8407,7 +8391,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8416,12 +8400,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8461,12 +8445,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8497,7 +8481,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8506,12 +8490,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8542,7 +8526,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8551,12 +8535,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8587,7 +8571,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8596,12 +8580,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8632,7 +8616,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8641,12 +8625,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8677,7 +8661,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8686,12 +8670,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8722,7 +8706,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8731,12 +8715,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8767,7 +8751,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8776,12 +8760,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8812,7 +8796,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8821,12 +8805,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8857,7 +8841,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8866,12 +8850,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8902,7 +8886,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8911,12 +8895,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8947,7 +8931,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8956,12 +8940,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8992,7 +8976,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9001,12 +8985,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9037,7 +9021,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9046,12 +9030,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9082,7 +9066,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9091,12 +9075,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9127,7 +9111,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9136,12 +9120,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9181,12 +9165,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9217,7 +9201,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9226,12 +9210,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9262,7 +9246,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9271,12 +9255,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9307,21 +9291,29 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>56102,88910</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9352,7 +9344,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9361,12 +9353,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9397,7 +9389,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9406,12 +9398,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9437,34 +9429,26 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>86900</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9495,7 +9479,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9504,12 +9488,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9540,7 +9524,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9549,12 +9533,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9585,7 +9569,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9594,12 +9578,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9630,7 +9614,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9639,12 +9623,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9675,7 +9659,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9684,12 +9668,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9720,7 +9704,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -9729,12 +9713,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9765,11 +9749,252 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>46900,47749</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>LAMONT BUILDS LIMITED</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>16473230</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>41201,41202,71111</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>16473232</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>70229</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>THESAFETYSAVVY LTD</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>16473135</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>86900</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>16473142</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>RAVIEN PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>16473210</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EMERALD TUTORS LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473963</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JANSEV ESTATES LTD</t>
+          <t>FLAMINGOWORX LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473970</t>
+          <t>16473973</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>VILLAGE PIZZA HESSLE LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473971</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TOFT &amp; WOHLLEBER LIMITED</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473966</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>47591,96090</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,21 +2734,29 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>31090</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2796,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2833,12 +2841,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2869,7 +2877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2878,12 +2886,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2923,12 +2931,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ASRO ACADEMY LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473968</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2994,7 +3002,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3004,7 +3012,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3013,12 +3021,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3039,7 +3047,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3058,12 +3066,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>ASRO ACADEMY LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473968</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3084,7 +3092,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3094,7 +3102,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3103,12 +3111,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3139,7 +3147,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,12 +3156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3184,7 +3192,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3193,12 +3201,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3229,7 +3237,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3238,12 +3246,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3274,7 +3282,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3283,12 +3291,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3319,7 +3327,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3328,12 +3336,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3409,7 +3417,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3418,12 +3426,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3463,12 +3471,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3508,12 +3516,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3544,7 +3552,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3553,12 +3561,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3589,7 +3597,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3598,12 +3606,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3643,12 +3651,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3679,7 +3687,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3688,12 +3696,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3733,12 +3741,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3769,7 +3777,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3778,12 +3786,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3814,7 +3822,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,12 +3831,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3859,7 +3867,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3868,12 +3876,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3904,7 +3912,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3913,12 +3921,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3958,12 +3966,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3994,7 +4002,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4003,12 +4011,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4048,12 +4056,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4093,12 +4101,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4124,12 +4132,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4138,12 +4146,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4174,7 +4182,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4183,12 +4191,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4254,7 +4262,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4264,7 +4272,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4273,12 +4281,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4309,7 +4317,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4318,12 +4326,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>PRIMIERA LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473974</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4344,7 +4352,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4354,7 +4362,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4363,12 +4371,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4399,7 +4407,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4408,12 +4416,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4444,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4453,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4489,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4498,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4534,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4543,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4579,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4588,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4624,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4633,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4669,29 +4677,21 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56101</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>TOFT &amp; WOHLLEBER LIMITED</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473966</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47591,96090</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>VILLAGE PIZZA HESSLE LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473971</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5437,12 +5437,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,17 +5451,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,17 +5496,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,29 +6027,21 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>81210</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6080,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6089,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6125,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6134,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6170,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6179,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6215,7 +6207,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6224,12 +6216,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6260,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6269,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6305,7 +6297,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6314,12 +6306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6345,12 +6337,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6359,12 +6351,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6387,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6396,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6440,7 +6432,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6441,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6477,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6486,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,7 +6522,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6539,12 +6531,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6575,7 +6567,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6584,12 +6576,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6620,7 +6612,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6629,12 +6621,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6665,7 +6657,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6674,12 +6666,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6710,7 +6702,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6719,12 +6711,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6755,7 +6747,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6764,12 +6756,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6795,26 +6787,34 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>46190</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6854,12 +6854,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6899,12 +6899,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6944,12 +6944,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -6997,12 +6997,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7042,12 +7042,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7087,12 +7087,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7132,12 +7132,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7177,12 +7177,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7222,12 +7222,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7267,12 +7267,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7312,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7357,12 +7357,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7402,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7438,21 +7438,29 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>90020</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7483,7 +7491,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7492,12 +7500,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7528,7 +7536,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7537,12 +7545,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7573,7 +7581,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7582,12 +7590,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7618,7 +7626,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7627,12 +7635,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7663,7 +7671,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7672,12 +7680,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7708,7 +7716,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7717,12 +7725,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7748,34 +7756,26 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>71122</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7815,12 +7815,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7846,26 +7846,34 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>71122</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7896,7 +7904,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7905,12 +7913,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7941,7 +7949,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7950,12 +7958,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7986,7 +7994,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7995,12 +8003,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8026,12 +8034,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8040,12 +8048,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8076,7 +8084,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8085,12 +8093,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8121,7 +8129,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8130,12 +8138,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8166,7 +8174,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8175,12 +8183,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8211,7 +8219,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8220,12 +8228,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8256,7 +8264,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8265,12 +8273,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8301,7 +8309,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8310,12 +8318,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8346,21 +8354,29 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8391,7 +8407,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8400,12 +8416,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8436,7 +8452,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8445,12 +8461,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8481,7 +8497,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8490,12 +8506,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8526,7 +8542,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8535,12 +8551,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8571,7 +8587,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8580,12 +8596,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8616,7 +8632,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8625,12 +8641,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8670,12 +8686,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8706,7 +8722,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8715,12 +8731,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8751,7 +8767,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8760,12 +8776,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8796,7 +8812,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8805,12 +8821,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8841,7 +8857,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8850,12 +8866,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8886,7 +8902,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8895,12 +8911,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8931,7 +8947,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8940,12 +8956,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8976,7 +8992,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8985,12 +9001,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9021,7 +9037,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9030,12 +9046,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9066,7 +9082,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9075,12 +9091,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9111,7 +9127,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9120,12 +9136,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9156,7 +9172,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9165,12 +9181,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9201,7 +9217,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9210,12 +9226,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9246,7 +9262,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9255,12 +9271,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9291,29 +9307,21 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>78109</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9344,7 +9352,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9353,12 +9361,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9389,7 +9397,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9398,12 +9406,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9434,7 +9442,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9443,12 +9451,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9479,7 +9487,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9488,12 +9496,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9524,7 +9532,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9533,12 +9541,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9569,7 +9577,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9578,12 +9586,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9623,12 +9631,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9659,7 +9667,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9668,12 +9676,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9704,7 +9712,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -9713,12 +9721,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9744,7 +9752,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -9766,12 +9774,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9802,7 +9810,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J207" t="inlineStr"/>
@@ -9811,12 +9819,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9847,7 +9855,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
@@ -9856,12 +9864,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9892,7 +9900,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -9901,12 +9909,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9932,34 +9940,26 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>46190</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9990,11 +9990,101 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>S SINGH BUILDER LTD</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>16473306</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>41202</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>KAYA SPECIALIST CARE LTD</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>16473112</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>86220</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>ASRO ACADEMY LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473968</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>PRIMIERA LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473974</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FLAMINGOWORX LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473973</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>VILLAGE PIZZA HESSLE LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473971</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>TOFT &amp; WOHLLEBER LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473966</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47591,96090</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,29 +2734,21 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56302</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2796,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2832,7 +2824,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2841,12 +2833,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,7 +2869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2886,12 +2878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2931,12 +2923,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2976,12 +2968,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3012,7 +3004,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3021,12 +3013,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3047,7 +3039,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3066,12 +3058,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ASRO ACADEMY LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473968</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3092,7 +3084,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3102,7 +3094,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3111,12 +3103,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3147,7 +3139,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3156,12 +3148,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3192,7 +3184,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3201,12 +3193,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3237,7 +3229,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3246,12 +3238,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3282,7 +3274,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3291,12 +3283,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3327,7 +3319,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3372,7 +3364,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3381,12 +3373,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3417,7 +3409,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3426,12 +3418,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3462,7 +3454,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3471,12 +3463,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3507,7 +3499,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,12 +3508,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3552,7 +3544,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3597,7 +3589,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3606,12 +3598,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3642,7 +3634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3651,12 +3643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3679,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3696,12 +3688,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3732,7 +3724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3741,12 +3733,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3777,7 +3769,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3786,12 +3778,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3822,7 +3814,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3831,12 +3823,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3867,7 +3859,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3876,12 +3868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3912,7 +3904,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3957,7 +3949,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3966,12 +3958,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4002,7 +3994,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4011,12 +4003,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4056,12 +4048,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4092,7 +4084,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4101,12 +4093,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4137,7 +4129,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4146,12 +4138,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4191,12 +4183,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4227,7 +4219,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4236,12 +4228,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4262,7 +4254,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4272,7 +4264,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4281,12 +4273,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4317,7 +4309,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4326,12 +4318,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRIMIERA LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473974</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4352,17 +4344,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4371,12 +4363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4407,7 +4399,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4416,12 +4408,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4444,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4453,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4489,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4498,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4534,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4543,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4579,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4588,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4624,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4633,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4669,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4678,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,21 +4714,29 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>56302</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TOFT &amp; WOHLLEBER LIMITED</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473966</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>47591,96090</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EMERALD TUTORS LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473963</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>JANSEV ESTATES LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473970</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>VILLAGE PIZZA HESSLE LTD</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473971</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>FLAMINGOWORX LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473973</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5482,12 +5482,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,21 +6162,29 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,7 +6215,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6216,12 +6224,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6260,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6269,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6297,7 +6305,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6306,12 +6314,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6342,7 +6350,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6351,12 +6359,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6387,7 +6395,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6396,12 +6404,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6427,12 +6435,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6441,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6477,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6486,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6522,7 +6530,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6531,12 +6539,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6567,7 +6575,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6576,12 +6584,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6612,7 +6620,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6621,12 +6629,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6657,7 +6665,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6666,12 +6674,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6702,7 +6710,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6711,12 +6719,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6747,7 +6755,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6756,12 +6764,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6787,34 +6795,34 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>64999</t>
+          <t>64306,70229</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Financial intermediation not elsewhere classified</t>
+          <t>Activities of real estate investment trusts</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+          <t>UK-regulated REIT companies.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6845,7 +6853,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6854,12 +6862,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6890,7 +6898,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6899,12 +6907,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6935,7 +6943,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6944,12 +6952,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6980,29 +6988,21 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7042,12 +7042,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7087,12 +7087,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7118,26 +7118,34 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7168,7 +7176,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7177,12 +7185,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,7 +7221,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7222,12 +7230,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,7 +7266,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7267,12 +7275,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,7 +7311,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7312,12 +7320,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7348,7 +7356,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7357,12 +7365,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7393,7 +7401,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7402,12 +7410,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7438,29 +7446,21 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>41201,41202,43220</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7500,12 +7500,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7545,12 +7545,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7590,12 +7590,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7635,12 +7635,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7680,12 +7680,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7725,12 +7725,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7770,12 +7770,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7815,12 +7815,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7846,34 +7846,26 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>73110</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7904,7 +7896,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7913,12 +7905,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7949,7 +7941,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7958,12 +7950,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7994,7 +7986,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8003,12 +7995,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8034,12 +8026,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8048,12 +8040,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8084,7 +8076,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8093,12 +8085,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8129,7 +8121,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8138,12 +8130,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8174,7 +8166,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8183,12 +8175,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8219,7 +8211,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8228,12 +8220,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8264,7 +8256,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8273,12 +8265,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8309,7 +8301,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8318,12 +8310,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8354,29 +8346,21 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46310,46390,46900,47250</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8407,7 +8391,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8416,12 +8400,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8452,7 +8436,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8461,12 +8445,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8497,7 +8481,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8506,12 +8490,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8542,7 +8526,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8551,12 +8535,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8587,7 +8571,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8596,12 +8580,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8632,7 +8616,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8641,12 +8625,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8677,7 +8661,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8686,12 +8670,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8722,7 +8706,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8731,12 +8715,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8767,7 +8751,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8776,12 +8760,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8812,7 +8796,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8821,12 +8805,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8857,7 +8841,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8866,12 +8850,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8902,7 +8886,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8911,12 +8895,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8947,7 +8931,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8956,12 +8940,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8992,7 +8976,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9001,12 +8985,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9037,7 +9021,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9046,12 +9030,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9082,7 +9066,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9091,12 +9075,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9127,7 +9111,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9136,12 +9120,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9172,7 +9156,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9181,12 +9165,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9217,7 +9201,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9226,12 +9210,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9262,7 +9246,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9271,12 +9255,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9307,7 +9291,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9316,12 +9300,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9352,7 +9336,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9361,12 +9345,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9397,21 +9381,29 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9442,7 +9434,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9451,12 +9443,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9487,7 +9479,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9496,12 +9488,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9532,7 +9524,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9541,12 +9533,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9577,7 +9569,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9586,12 +9578,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9622,7 +9614,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9631,12 +9623,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9667,7 +9659,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9676,12 +9668,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9712,7 +9704,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -9721,12 +9713,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9752,34 +9744,26 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>43341</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9810,7 +9794,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J207" t="inlineStr"/>
@@ -9819,12 +9803,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9855,21 +9839,29 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>45200</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9900,7 +9892,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -9909,12 +9901,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9945,7 +9937,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J210" t="inlineStr"/>
@@ -9954,12 +9946,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9990,7 +9982,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J211" t="inlineStr"/>
@@ -9999,12 +9991,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10030,16 +10022,24 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASRO ACADEMY LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473968</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRIMIERA LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473974</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1779,17 +1779,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>FLAMINGOWORX LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473973</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>ASRO ACADEMY LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473968</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>VILLAGE PIZZA HESSLE LTD</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473971</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JANSEV ESTATES LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473970</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EMERALD TUTORS LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473963</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TOFT &amp; WOHLLEBER LIMITED</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473966</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>47591,96090</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,21 +2734,29 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>56302</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2796,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2824,7 +2832,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2833,12 +2841,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2869,7 +2877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2878,12 +2886,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2923,12 +2931,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3004,7 +3012,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3013,12 +3021,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3058,12 +3066,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3084,7 +3092,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3094,7 +3102,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3103,12 +3111,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>PRIMIERA LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473974</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3129,7 +3137,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3139,7 +3147,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,12 +3156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3184,7 +3192,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3193,12 +3201,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3229,7 +3237,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3238,12 +3246,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3274,7 +3282,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3283,12 +3291,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3319,7 +3327,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3328,12 +3336,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3409,7 +3417,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3418,12 +3426,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3463,12 +3471,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3508,12 +3516,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3544,7 +3552,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3553,12 +3561,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3589,7 +3597,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3598,12 +3606,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3643,12 +3651,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3679,7 +3687,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3688,12 +3696,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3733,12 +3741,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3769,7 +3777,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3778,12 +3786,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3814,7 +3822,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,12 +3831,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3859,7 +3867,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3868,12 +3876,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3904,7 +3912,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3913,12 +3921,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3958,12 +3966,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3994,7 +4002,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4003,12 +4011,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4048,12 +4056,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4093,12 +4101,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4129,7 +4137,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4138,12 +4146,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4174,7 +4182,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4183,12 +4191,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4209,7 +4217,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4264,7 +4272,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4273,12 +4281,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4309,7 +4317,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4318,12 +4326,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4349,12 +4357,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4363,12 +4371,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4399,7 +4407,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4408,12 +4416,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4444,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4453,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4489,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4498,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4534,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4543,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4579,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4588,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4624,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4633,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4669,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4678,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4714,29 +4722,21 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56302</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>VILLAGE PIZZA HESSLE LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473971</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FLAMINGOWORX LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473973</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5482,12 +5482,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>TOFT &amp; WOHLLEBER LIMITED</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473966</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47591,96090</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,29 +6162,21 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46310,46390,46900,47250</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6215,7 +6207,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6224,12 +6216,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6260,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6269,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6305,7 +6297,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6314,12 +6306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6350,7 +6342,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6359,12 +6351,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6387,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6396,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6435,12 +6427,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6441,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6477,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6486,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,7 +6522,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6539,12 +6531,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6575,7 +6567,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6584,12 +6576,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6620,7 +6612,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6629,12 +6621,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6665,7 +6657,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6674,12 +6666,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6710,7 +6702,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6719,12 +6711,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6755,7 +6747,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6764,12 +6756,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6795,34 +6787,26 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>73110</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6848,26 +6832,34 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6898,7 +6890,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6907,12 +6899,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6943,7 +6935,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6952,12 +6944,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6988,7 +6980,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6997,12 +6989,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7033,21 +7025,29 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>45200</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7087,12 +7087,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7118,34 +7118,26 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>43341</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7176,7 +7168,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7185,12 +7177,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7221,7 +7213,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7230,12 +7222,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7266,7 +7258,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7275,12 +7267,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7311,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7320,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7356,7 +7348,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7365,12 +7357,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7401,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7410,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7446,21 +7438,29 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7500,12 +7500,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7545,12 +7545,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7590,12 +7590,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7635,12 +7635,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7680,12 +7680,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7725,12 +7725,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7770,12 +7770,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7815,12 +7815,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7860,12 +7860,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7905,12 +7905,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7950,12 +7950,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7995,12 +7995,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8026,12 +8026,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8040,12 +8040,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8085,12 +8085,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8130,12 +8130,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8175,12 +8175,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8220,12 +8220,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8265,12 +8265,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8301,21 +8301,29 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8346,7 +8354,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8355,12 +8363,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8391,7 +8399,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8400,12 +8408,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8436,7 +8444,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8445,12 +8453,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8481,7 +8489,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8490,12 +8498,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8526,7 +8534,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8535,12 +8543,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8571,7 +8579,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8580,12 +8588,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8616,7 +8624,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8625,12 +8633,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8661,7 +8669,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8670,12 +8678,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8706,7 +8714,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8715,12 +8723,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8751,7 +8759,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8760,12 +8768,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8796,7 +8804,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8805,12 +8813,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8841,7 +8849,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8850,12 +8858,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8886,7 +8894,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8895,12 +8903,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8931,7 +8939,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8940,12 +8948,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8976,7 +8984,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8985,12 +8993,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9021,7 +9029,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9030,12 +9038,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9066,7 +9074,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9075,12 +9083,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9111,7 +9119,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9120,12 +9128,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9156,7 +9164,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9165,12 +9173,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9201,7 +9209,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9210,12 +9218,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9246,7 +9254,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9255,12 +9263,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9291,7 +9299,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9300,12 +9308,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9336,7 +9344,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9345,12 +9353,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9381,29 +9389,21 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>41201,41202,43220</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9443,12 +9443,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9488,12 +9488,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9533,12 +9533,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9578,12 +9578,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9623,12 +9623,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9668,12 +9668,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9699,26 +9699,34 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9749,7 +9757,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -9758,12 +9766,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9794,7 +9802,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J207" t="inlineStr"/>
@@ -9803,12 +9811,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9839,29 +9847,21 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -9901,12 +9901,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J210" t="inlineStr"/>
@@ -9946,12 +9946,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J211" t="inlineStr"/>
@@ -9991,12 +9991,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10022,22 +10022,22 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>64999</t>
+          <t>64306,70229</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Financial intermediation not elsewhere classified</t>
+          <t>Activities of real estate investment trusts</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+          <t>UK-regulated REIT companies.</t>
         </is>
       </c>
     </row>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>TOFT &amp; WOHLLEBER LIMITED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473966</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47591,96090</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FLAMINGOWORX LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473973</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ASRO ACADEMY LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473968</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>VILLAGE PIZZA HESSLE LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473971</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,29 +2734,21 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56302</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2796,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2832,7 +2824,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2841,12 +2833,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,7 +2869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2886,12 +2878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2931,12 +2923,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2976,12 +2968,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>PRIMIERA LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473974</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3002,7 +2994,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3012,7 +3004,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3021,12 +3013,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3066,12 +3058,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3102,7 +3094,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3111,12 +3103,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRIMIERA LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473974</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3137,17 +3129,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3156,12 +3148,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3192,7 +3184,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3201,12 +3193,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3237,7 +3229,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3246,12 +3238,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3282,7 +3274,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3291,12 +3283,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3327,7 +3319,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3372,7 +3364,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3381,12 +3373,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3417,7 +3409,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3426,12 +3418,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3462,7 +3454,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3471,12 +3463,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3507,7 +3499,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,12 +3508,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3552,7 +3544,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3597,7 +3589,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3606,12 +3598,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3642,7 +3634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3651,12 +3643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3679,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3696,12 +3688,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3732,7 +3724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3741,12 +3733,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3777,7 +3769,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3786,12 +3778,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3822,7 +3814,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3831,12 +3823,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3867,7 +3859,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3876,12 +3868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3912,7 +3904,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3957,7 +3949,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3966,12 +3958,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4002,7 +3994,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4011,12 +4003,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4056,12 +4048,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4092,7 +4084,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4101,12 +4093,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4137,7 +4129,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4146,12 +4138,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4191,12 +4183,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4217,7 +4209,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4227,7 +4219,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4236,12 +4228,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4272,7 +4264,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4281,12 +4273,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4317,7 +4309,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4326,12 +4318,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4362,7 +4354,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4371,12 +4363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4407,7 +4399,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4416,12 +4408,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4444,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4453,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4497,7 +4489,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4498,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4534,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4543,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4579,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4588,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4624,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4633,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4669,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4678,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4722,21 +4714,29 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>56302</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EMERALD TUTORS LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473963</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>JANSEV ESTATES LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473970</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>VILLAGE PIZZA HESSLE LTD</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473971</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>ASRO ACADEMY LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473968</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>FLAMINGOWORX LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473973</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5482,12 +5482,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TOFT &amp; WOHLLEBER LIMITED</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473966</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>47591,96090</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,21 +6207,29 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6260,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6269,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6297,7 +6305,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6306,12 +6314,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6342,7 +6350,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6351,12 +6359,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6387,7 +6395,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6396,12 +6404,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6427,12 +6435,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6441,12 +6449,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6477,7 +6485,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6486,12 +6494,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6522,7 +6530,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6531,12 +6539,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6567,7 +6575,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6576,12 +6584,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6612,7 +6620,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6621,12 +6629,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6657,7 +6665,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6666,12 +6674,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6702,7 +6710,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6711,12 +6719,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6747,7 +6755,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6756,12 +6764,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6792,7 +6800,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6801,12 +6809,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6832,34 +6840,34 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>64999</t>
+          <t>64306,70229</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Financial intermediation not elsewhere classified</t>
+          <t>Activities of real estate investment trusts</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+          <t>UK-regulated REIT companies.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6890,7 +6898,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6899,12 +6907,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6935,7 +6943,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6944,12 +6952,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6980,7 +6988,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6989,12 +6997,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7025,29 +7033,21 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7087,12 +7087,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7132,12 +7132,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7163,26 +7163,34 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,7 +7221,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7222,12 +7230,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,7 +7266,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7267,12 +7275,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,7 +7311,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7312,12 +7320,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7348,7 +7356,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7357,12 +7365,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7393,7 +7401,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7402,12 +7410,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7438,29 +7446,21 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>41201,41202,43220</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7500,12 +7500,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7545,12 +7545,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7590,12 +7590,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7635,12 +7635,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7680,12 +7680,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7725,12 +7725,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7770,12 +7770,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7815,12 +7815,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7860,12 +7860,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7905,12 +7905,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7950,12 +7950,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7995,12 +7995,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8026,12 +8026,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8040,12 +8040,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8085,12 +8085,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8130,12 +8130,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8175,12 +8175,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8220,12 +8220,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8265,12 +8265,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8301,29 +8301,21 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46310,46390,46900,47250</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8354,7 +8346,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8363,12 +8355,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8399,7 +8391,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8408,12 +8400,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8444,7 +8436,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8453,12 +8445,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8489,7 +8481,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8498,12 +8490,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8534,7 +8526,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8543,12 +8535,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8579,7 +8571,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8588,12 +8580,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8624,7 +8616,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8633,12 +8625,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8669,7 +8661,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8678,12 +8670,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8714,7 +8706,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8723,12 +8715,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8759,7 +8751,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8768,12 +8760,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8804,7 +8796,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8813,12 +8805,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8849,7 +8841,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8858,12 +8850,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8894,7 +8886,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8903,12 +8895,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8939,7 +8931,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8948,12 +8940,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8984,7 +8976,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8993,12 +8985,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9029,7 +9021,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9038,12 +9030,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9074,7 +9066,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9083,12 +9075,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9119,7 +9111,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9128,12 +9120,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9164,7 +9156,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9173,12 +9165,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9209,7 +9201,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9218,12 +9210,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9254,7 +9246,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9263,12 +9255,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9299,7 +9291,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9308,12 +9300,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9344,7 +9336,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9353,12 +9345,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9389,21 +9381,29 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9443,12 +9443,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9488,12 +9488,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9533,12 +9533,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9578,12 +9578,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9623,12 +9623,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9668,12 +9668,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9699,34 +9699,26 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>43341</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9757,7 +9749,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -9766,12 +9758,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9802,21 +9794,29 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>45200</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
@@ -9856,12 +9856,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -9901,12 +9901,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J210" t="inlineStr"/>
@@ -9946,12 +9946,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9977,26 +9977,34 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10022,24 +10030,16 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>73110</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TOFT &amp; WOHLLEBER LIMITED</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473966</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>47591,96090</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>FLAMINGOWORX LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473973</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>ASRO ACADEMY LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473968</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VILLAGE PIZZA HESSLE LTD</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473971</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JANSEV ESTATES LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473970</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EMERALD TUTORS LTD</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16473963</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,21 +2734,29 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>56302</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2796,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2824,7 +2832,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2833,12 +2841,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2869,7 +2877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2878,12 +2886,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2923,12 +2931,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PRIMIERA LTD</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473974</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2994,17 +3002,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3013,12 +3021,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3058,12 +3066,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3103,12 +3111,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3134,12 +3142,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,12 +3156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3184,7 +3192,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3193,12 +3201,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3229,7 +3237,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3238,12 +3246,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3274,7 +3282,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3283,12 +3291,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3319,7 +3327,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3328,12 +3336,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3409,7 +3417,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3418,12 +3426,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3463,12 +3471,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3508,12 +3516,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3544,7 +3552,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3553,12 +3561,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3589,7 +3597,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3598,12 +3606,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3643,12 +3651,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3679,7 +3687,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3688,12 +3696,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3733,12 +3741,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3769,7 +3777,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3778,12 +3786,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3814,7 +3822,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,12 +3831,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3859,7 +3867,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3868,12 +3876,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3904,7 +3912,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3913,12 +3921,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3958,12 +3966,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3994,7 +4002,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4003,12 +4011,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4048,12 +4056,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4093,12 +4101,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4129,7 +4137,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4138,12 +4146,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4164,7 +4172,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4174,7 +4182,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4183,12 +4191,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>PRIMIERA LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473974</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4254,7 +4262,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4264,7 +4272,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4273,12 +4281,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4309,7 +4317,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4318,12 +4326,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4354,7 +4362,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4363,12 +4371,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4399,7 +4407,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4408,12 +4416,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4444,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4453,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4489,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4498,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4534,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4543,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4579,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4588,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4624,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4633,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4669,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4678,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4714,29 +4722,21 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56302</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>VILLAGE PIZZA HESSLE LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473971</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ASRO ACADEMY LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473968</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FLAMINGOWORX LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473973</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>TOFT &amp; WOHLLEBER LIMITED</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16473966</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47591,96090</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5482,12 +5482,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,29 +6207,21 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>46310,46390,46900,47250</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6260,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6269,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6305,7 +6297,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6314,12 +6306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6350,7 +6342,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6359,12 +6351,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6395,7 +6387,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6404,12 +6396,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6435,12 +6427,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6449,12 +6441,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6485,7 +6477,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6494,12 +6486,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6530,7 +6522,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6539,12 +6531,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6575,7 +6567,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6584,12 +6576,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6620,7 +6612,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6629,12 +6621,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6665,7 +6657,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6674,12 +6666,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6710,7 +6702,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6719,12 +6711,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>RAVIEN PROPERTY LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473210</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6755,7 +6747,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6764,12 +6756,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6800,7 +6792,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6809,12 +6801,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6840,34 +6832,26 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>73110</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6893,26 +6877,34 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>41202</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6943,7 +6935,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6952,12 +6944,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6988,7 +6980,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6997,12 +6989,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7033,7 +7025,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7042,12 +7034,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,21 +7070,29 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>45200</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7132,12 +7132,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7163,34 +7163,26 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>43341</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7221,7 +7213,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7230,12 +7222,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7266,7 +7258,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7275,12 +7267,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7311,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7320,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7356,7 +7348,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7365,12 +7357,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7401,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7410,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7446,21 +7438,29 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7500,12 +7500,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7545,12 +7545,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7590,12 +7590,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7635,12 +7635,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7680,12 +7680,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7725,12 +7725,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7770,12 +7770,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7815,12 +7815,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7860,12 +7860,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7905,12 +7905,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -7950,12 +7950,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7995,12 +7995,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8026,12 +8026,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8040,12 +8040,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8085,12 +8085,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8130,12 +8130,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8175,12 +8175,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8220,12 +8220,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8256,21 +8256,29 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8301,7 +8309,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8310,12 +8318,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8346,7 +8354,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8355,12 +8363,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8391,7 +8399,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8400,12 +8408,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8436,7 +8444,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8445,12 +8453,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8481,7 +8489,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8490,12 +8498,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8526,7 +8534,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8535,12 +8543,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8571,7 +8579,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8580,12 +8588,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8616,7 +8624,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8625,12 +8633,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8661,7 +8669,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8670,12 +8678,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8706,7 +8714,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8715,12 +8723,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8751,7 +8759,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8760,12 +8768,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8796,7 +8804,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8805,12 +8813,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8841,7 +8849,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8850,12 +8858,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8886,7 +8894,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8895,12 +8903,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8931,7 +8939,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8940,12 +8948,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8976,7 +8984,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8985,12 +8993,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9021,7 +9029,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9030,12 +9038,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9066,7 +9074,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9075,12 +9083,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9111,7 +9119,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9120,12 +9128,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9156,7 +9164,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9165,12 +9173,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9201,7 +9209,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9210,12 +9218,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9246,7 +9254,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9255,12 +9263,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9291,7 +9299,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9300,12 +9308,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9336,7 +9344,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9345,12 +9353,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9381,29 +9389,21 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>41201,41202,43220</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9443,12 +9443,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9488,12 +9488,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9533,12 +9533,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9578,12 +9578,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9623,12 +9623,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9654,26 +9654,34 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>47910</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9704,7 +9712,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -9713,12 +9721,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9749,7 +9757,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -9758,12 +9766,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9794,29 +9802,21 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
@@ -9856,12 +9856,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -9901,12 +9901,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J210" t="inlineStr"/>
@@ -9946,12 +9946,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9977,34 +9977,34 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>64999</t>
+          <t>64306,70229</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Financial intermediation not elsewhere classified</t>
+          <t>Activities of real estate investment trusts</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+          <t>UK-regulated REIT companies.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J212" t="inlineStr"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>PRIMIERA LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473974</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>HAMOO LIMITED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>SC849802</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>RAHMX LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>16474035</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>62012,62090,73110,74100</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>MOHAMED MOHAMED TM LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16474030</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43120</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FLAMINGOWORX LTD</t>
+          <t>KGJ TM LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16473973</t>
+          <t>16474031</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>43120</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ASRO ACADEMY LTD</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473968</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>VILLAGE PIZZA HESSLE LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473971</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,29 +2734,21 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47630</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2796,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2832,7 +2824,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2841,12 +2833,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,7 +2869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2886,12 +2878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2922,7 +2914,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2931,12 +2923,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2976,12 +2968,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3007,12 +2999,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3021,12 +3013,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3066,12 +3058,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3102,7 +3094,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3111,12 +3103,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>TOFT &amp; WOHLLEBER LIMITED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473966</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3137,7 +3129,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3147,7 +3139,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>47591,96090</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3156,12 +3148,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3192,7 +3184,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3201,12 +3193,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3237,7 +3229,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3246,12 +3238,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3282,7 +3274,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3291,12 +3283,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3327,7 +3319,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3336,12 +3328,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3372,7 +3364,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3381,12 +3373,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3417,7 +3409,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3426,12 +3418,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3462,7 +3454,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3471,12 +3463,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3507,7 +3499,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,12 +3508,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3552,7 +3544,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3561,12 +3553,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3597,7 +3589,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3606,12 +3598,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3642,7 +3634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3651,12 +3643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3679,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3696,12 +3688,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3732,7 +3724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3741,12 +3733,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3777,7 +3769,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3786,12 +3778,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3822,7 +3814,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3831,12 +3823,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3867,7 +3859,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3876,12 +3868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3912,7 +3904,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3957,7 +3949,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3966,12 +3958,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4002,7 +3994,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4011,12 +4003,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4056,12 +4048,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4092,7 +4084,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4101,12 +4093,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4137,7 +4129,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4146,12 +4138,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4172,7 +4164,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4191,12 +4183,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4227,7 +4219,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4236,12 +4228,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRIMIERA LTD</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473974</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4262,7 +4254,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4272,7 +4264,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4281,12 +4273,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4317,7 +4309,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4326,12 +4318,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4362,7 +4354,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4371,12 +4363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4407,7 +4399,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4416,12 +4408,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4452,7 +4444,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4461,12 +4453,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>AWRAH PROTECTION LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16474033</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4487,7 +4479,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4497,7 +4489,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>80100</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4506,12 +4498,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4542,7 +4534,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4551,12 +4543,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4587,7 +4579,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4596,12 +4588,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4632,7 +4624,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4641,12 +4633,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4677,7 +4669,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4686,12 +4678,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4717,12 +4709,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4731,12 +4723,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4767,7 +4759,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4776,12 +4768,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4812,7 +4804,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4821,12 +4813,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4857,7 +4849,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4866,12 +4858,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4902,21 +4894,29 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>71129</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>JANSEV ESTATES LTD</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473970</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>VILLAGE PIZZA HESSLE LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473971</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>FLAMINGOWORX LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473973</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TOFT &amp; WOHLLEBER LIMITED</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473966</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5387,17 +5387,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>47591,96090</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EMERALD TUTORS LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473963</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,17 +5541,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,17 +5586,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,17 +5631,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>ASRO ACADEMY LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473968</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,17 +5676,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,17 +5721,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>18:02:30</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6216,12 +6216,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6306,12 +6306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>88910</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6351,12 +6351,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6396,12 +6396,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6441,12 +6441,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6486,12 +6486,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6531,12 +6531,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6576,12 +6576,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6612,21 +6612,29 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>86900</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6657,7 +6665,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6666,12 +6674,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6702,7 +6710,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6711,12 +6719,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RAVIEN PROPERTY LTD</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473210</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6747,7 +6755,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6756,12 +6764,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6792,7 +6800,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6801,12 +6809,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6837,7 +6845,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6846,12 +6854,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6877,34 +6885,26 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>68100,81210</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6944,12 +6944,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6989,12 +6989,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7020,26 +7020,34 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7070,29 +7078,21 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>41202</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7132,12 +7132,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>43341</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7177,12 +7177,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7222,12 +7222,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7267,12 +7267,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7312,12 +7312,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7343,26 +7343,34 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7393,7 +7401,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7402,12 +7410,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7438,29 +7446,21 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>43999</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7500,12 +7500,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7545,12 +7545,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7590,12 +7590,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7635,12 +7635,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7680,12 +7680,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7725,12 +7725,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7770,12 +7770,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7815,12 +7815,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7860,12 +7860,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7891,12 +7891,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7905,12 +7905,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7941,21 +7941,29 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>82990</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7986,7 +7994,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -7995,12 +8003,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8026,12 +8034,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8040,12 +8048,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8076,7 +8084,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8085,12 +8093,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8121,7 +8129,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8130,12 +8138,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8166,7 +8174,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8175,12 +8183,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8211,7 +8219,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8220,12 +8228,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8256,29 +8264,21 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45200</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>88910</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8318,12 +8318,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8363,12 +8363,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8408,12 +8408,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8453,12 +8453,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8498,12 +8498,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8543,12 +8543,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8588,12 +8588,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8633,12 +8633,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8678,12 +8678,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8723,12 +8723,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8768,12 +8768,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8813,12 +8813,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8858,12 +8858,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8903,12 +8903,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8948,12 +8948,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8993,12 +8993,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9038,12 +9038,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9083,12 +9083,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9128,12 +9128,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9173,12 +9173,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9218,12 +9218,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9263,12 +9263,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9308,12 +9308,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>41201,41202,43999</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9353,12 +9353,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9398,12 +9398,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9443,12 +9443,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9488,12 +9488,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9533,12 +9533,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9578,12 +9578,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9623,12 +9623,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9654,34 +9654,26 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>25110</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9712,7 +9704,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -9721,12 +9713,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9757,7 +9749,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -9766,12 +9758,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9802,7 +9794,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J207" t="inlineStr"/>
@@ -9811,12 +9803,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9847,7 +9839,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
@@ -9856,12 +9848,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9892,7 +9884,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>90010</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -9901,12 +9893,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9937,7 +9929,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J210" t="inlineStr"/>
@@ -9946,12 +9938,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9977,34 +9969,26 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>47730</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10035,21 +10019,29 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10080,11 +10072,244 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>16473232</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>70229</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>THESAFETYSAVVY LTD</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>16473135</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>86900</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>16473142</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>STUDIO11 CONTENT LTD</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>16473066</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>73110</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>RAVIEN PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>16473210</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>18:02:30</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
+          <t>J&amp;F STUDIOS LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473561</t>
+          <t>16473474</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>74201,74209</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
+          <t>CRAWFORD HS LIMITED</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473551</t>
+          <t>16473818</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>74909</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
+          <t>NFGU COACHING LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473568</t>
+          <t>16473802</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>01300,01500</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRIMIERA LTD</t>
+          <t>GD PROPERTY GROUP LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473974</t>
+          <t>16473525</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>68100</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAGA STUDIO LTD</t>
+          <t>WELCOME MART LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473564</t>
+          <t>16473757</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OSTIA GROUP LIMITED</t>
+          <t>MJE FACILITIES CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473905</t>
+          <t>16473821</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
+          <t>ANT CARS LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473470</t>
+          <t>16473814</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>84120,86900,87200</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AEVA MEDICAL LTD</t>
+          <t>PURPLE LAVENDER SERVICES LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473575</t>
+          <t>16473825</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>86220,86900,96020</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PANOLUX CREATIVE LTD</t>
+          <t>SOULMATEEN LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473840</t>
+          <t>16473493</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>74202</t>
+          <t>46160,46190</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NIVADO SERVICES LIMITED</t>
+          <t>TAMWORTH GARAGE LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473521</t>
+          <t>16473498</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A JOLLY DIME LIMITED</t>
+          <t>JCD ROOFS LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473846</t>
+          <t>16473495</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OFFICIALNEPTUNETRADING LIMITED</t>
+          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473795</t>
+          <t>16473534</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EXPLORE THERAPY LTD</t>
+          <t>NALLA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473794</t>
+          <t>16473538</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>68100,68201,68209,68320</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DAILY DASH STORE LIMITED</t>
+          <t>AWRAH PROTECTION LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16473569</t>
+          <t>16474033</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>80100</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AARM RELIABLE LIMITED</t>
+          <t>JEVOIR LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473680</t>
+          <t>16473540</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>47710</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MUHAMMAD HAMZA LTD</t>
+          <t>AXELFIT SYSTEMS LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473685</t>
+          <t>16473762</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>33200,42990,43290</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
+          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473763</t>
+          <t>16473852</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>43342</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ONLYVANS GROUP LTD</t>
+          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473675</t>
+          <t>16473851</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>49410,49420</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NK.SARANG LIMITED</t>
+          <t>NEXCHAIN TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473677</t>
+          <t>16473847</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>46499</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GENCO REALTY LTD</t>
+          <t>N.K. PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SC849765</t>
+          <t>16473848</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>55209,68209,68310,87900</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AESTHETIC STUDIOS LONDON LTD</t>
+          <t>NAE BAD SPUD LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16473630</t>
+          <t>SC849792</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>59112,74201,90030</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INFUSION DANCE LTD</t>
+          <t>BACALUTAPROPERTYSOLUTION LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SC849766</t>
+          <t>16473482</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>55209,68209,68320</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BURE VALLEY PROPERTY LIMITED</t>
+          <t>TRUE POLYGON HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16473632</t>
+          <t>SC849753</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STUDIO TRUE NORTH LTD</t>
+          <t>SHYFTABLE LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473631</t>
+          <t>16473820</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>96020</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TREACLE RIGGING LTD</t>
+          <t>MURRAY'S COFFEE LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473633</t>
+          <t>16473717</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>10832,56103,56210</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MOSSWOOD PROPERTY LIMITED</t>
+          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16473592</t>
+          <t>SC849780</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FJ COURIERS LIMITED</t>
+          <t>CARDIUM CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473483</t>
+          <t>16473858</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>82920</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>COMPASS HOUSING SOLUTIONS LTD</t>
+          <t>GTS ACCOUNTANCY LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473554</t>
+          <t>16473686</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>69201</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WOW BUBBLES BARNSLEY LTD</t>
+          <t>MWB RENEWABLES LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473572</t>
+          <t>16473843</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SELDUR LTD</t>
+          <t>JUSTGOTYOU LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473642</t>
+          <t>16473542</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HAMOO LIMITED</t>
+          <t>COMPASS PROPERTY SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SC849802</t>
+          <t>16473902</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22:24:36</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RAHMX LTD</t>
+          <t>ANYTHING4FOOD LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16474035</t>
+          <t>16473901</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22:24:36</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>62012,62090,73110,74100</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MOHAMED MOHAMED TM LTD</t>
+          <t>ASRO ACADEMY LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16474030</t>
+          <t>16473968</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22:24:36</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>43120</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KGJ TM LTD</t>
+          <t>GEOME LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16474031</t>
+          <t>SC849793</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22:24:36</t>
+          <t>18:27:11</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>43120</t>
+          <t>72190</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EMERALD TUTORS LTD</t>
+          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473963</t>
+          <t>16473574</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>68209,68320</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ROUSE SHARP LTD</t>
+          <t>MZOF LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473550</t>
+          <t>16473719</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>41100,68209</t>
+          <t>59111</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RUGER CONSULTING LTD</t>
+          <t>MINI PRINT FACTORY LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473547</t>
+          <t>16473759</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BUNCE E-COMMERCE LIMITED</t>
+          <t>VICTORY NINE LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473683</t>
+          <t>16473475</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WWFD CONSULTING LIMITED</t>
+          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473591</t>
+          <t>16473798</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DELAN CUILEY LIMITED</t>
+          <t>NIKKOLEE LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NI729778</t>
+          <t>SC849775</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>46210,46341,47910</t>
+          <t>18110,58110,58130</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MIXT ACADEMY LTD</t>
+          <t>MIGHTY FORTRESS ESTATES LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473912</t>
+          <t>16473513</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DARCYBROOK LTD</t>
+          <t>FLAMINGOWORX LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473587</t>
+          <t>16473973</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VILLAGE PIZZA HESSLE LTD</t>
+          <t>NA GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473971</t>
+          <t>16473758</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>41201,41202</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JANSEV ESTATES LTD</t>
+          <t>R&amp;H KHUSHI LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473970</t>
+          <t>16473718</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ZEENUNGOS LIMITED</t>
+          <t>ROKSEE LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473674</t>
+          <t>16473563</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>87100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HOUSE OF SAFFRON LIMITED</t>
+          <t>SSMARTTEC LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473645</t>
+          <t>16473466</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>61200,62020</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SDT GLOBAL SERVICES LTD</t>
+          <t>HOLLY LARKHAM CARE LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473808</t>
+          <t>16473517</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>47190,69201,70229,71122</t>
+          <t>87300</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NOTHING SOUNDS GOOD LIMITED</t>
+          <t>EL RESALES LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16473566</t>
+          <t>SC849752</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>47630</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2743,12 +2743,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RESONANCE TECHNOLOGIES LTD</t>
+          <t>TAP &amp; WASH LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473822</t>
+          <t>16473555</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>81299</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JAMBURI LTD</t>
+          <t>SEVEN (HOLDCO) LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473543</t>
+          <t>16473606</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2824,21 +2824,29 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>56103</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IACO PROPERTY LTD</t>
+          <t>CLARITY HOME HUB HEALTH LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SC849759</t>
+          <t>16473605</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2869,7 +2877,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2878,12 +2886,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PITU BRICKWORK LTD</t>
+          <t>FHFC LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16473644</t>
+          <t>16473652</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2914,7 +2922,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2923,12 +2931,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>THE BUNKER LEVEN LIMITED</t>
+          <t>RESOLUTIO CONSULTING LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SC849768</t>
+          <t>16473560</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>56302</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EN4 RESTAURANT LIMITED</t>
+          <t>BDL NORTH PARTNERS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16473650</t>
+          <t>16473813</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2999,12 +3007,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>56101</t>
+          <t>68320</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3013,12 +3021,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
+          <t>ZENCRUITERS LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16473643</t>
+          <t>16473562</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3058,12 +3066,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JULIAN FRANCIS LTD</t>
+          <t>HIGH STREET CORNER STORE LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16473523</t>
+          <t>16473558</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3094,7 +3102,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>38320</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3103,12 +3111,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TOFT &amp; WOHLLEBER LIMITED</t>
+          <t>LAYLAH COUNSELLING LIMITED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16473966</t>
+          <t>16473672</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3129,7 +3137,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3139,7 +3147,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>47591,96090</t>
+          <t>84120</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,12 +3156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3179,12 +3187,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3193,12 +3201,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LAYLAH COUNSELLING LIMITED</t>
+          <t>TOFT &amp; WOHLLEBER LIMITED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16473672</t>
+          <t>16473966</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3219,7 +3227,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3229,7 +3237,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>47591,96090</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3238,12 +3246,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3274,7 +3282,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3283,12 +3291,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3319,7 +3327,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3328,12 +3336,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3409,7 +3417,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3418,12 +3426,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3463,12 +3471,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3499,7 +3507,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3508,12 +3516,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3544,7 +3552,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3553,12 +3561,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3589,7 +3597,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3598,12 +3606,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3634,7 +3642,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3643,12 +3651,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3679,7 +3687,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3688,12 +3696,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3733,12 +3741,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3769,7 +3777,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3778,12 +3786,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3814,7 +3822,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3823,12 +3831,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3859,7 +3867,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3868,12 +3876,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3913,12 +3921,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3958,12 +3966,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3994,7 +4002,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4003,12 +4011,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4047,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -4048,12 +4056,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4093,12 +4101,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4129,7 +4137,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4138,12 +4146,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4174,7 +4182,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4183,12 +4191,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4209,7 +4217,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4219,7 +4227,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4264,7 +4272,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4273,12 +4281,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4309,7 +4317,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4318,12 +4326,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4354,7 +4362,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4363,12 +4371,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4399,7 +4407,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4408,12 +4416,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4444,7 +4452,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4453,12 +4461,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AWRAH PROTECTION LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16474033</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4479,7 +4487,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22:24:36</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4489,7 +4497,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>80100</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4498,12 +4506,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>PRIMIERA LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473974</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4524,7 +4532,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4534,7 +4542,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4543,12 +4551,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4579,7 +4587,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4588,12 +4596,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HIGH STREET CORNER STORE LTD</t>
+          <t>VILLAGE PIZZA HESSLE LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16473558</t>
+          <t>16473971</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4614,7 +4622,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4624,7 +4632,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>47110</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4633,12 +4641,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ZENCRUITERS LTD</t>
+          <t>LATHAM INDUSTRIES (WEST MIDLANDS) LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16473562</t>
+          <t>16473643</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4669,7 +4677,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>31090</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4678,12 +4686,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BDL NORTH PARTNERS LTD</t>
+          <t>SELDUR LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16473813</t>
+          <t>16473642</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4709,12 +4717,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4723,12 +4731,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RESOLUTIO CONSULTING LTD</t>
+          <t>EN4 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16473560</t>
+          <t>16473650</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4759,7 +4767,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>56101</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4768,12 +4776,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FHFC LIMITED</t>
+          <t>PITU BRICKWORK LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16473652</t>
+          <t>16473644</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4804,7 +4812,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4813,12 +4821,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>IACO PROPERTY LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16473605</t>
+          <t>SC849759</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4849,7 +4857,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4858,12 +4866,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4894,29 +4902,21 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56103</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4956,12 +4956,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5001,12 +5001,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5091,12 +5091,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5136,12 +5136,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5181,12 +5181,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FLAMINGOWORX LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16473973</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5271,12 +5271,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5316,12 +5316,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5361,12 +5361,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GANDER INVESTMENTS LTD</t>
+          <t>RAHMX LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16473515</t>
+          <t>16474035</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5387,17 +5387,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>68100,68209</t>
+          <t>62012,62090,73110,74100</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5406,12 +5406,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>HAMOO LIMITED</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>SC849802</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>KGJ TM LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16474031</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43120</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5496,12 +5496,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>MOHAMED MOHAMED TM LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16474030</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>43120</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5541,12 +5541,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5586,12 +5586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5631,12 +5631,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ASRO ACADEMY LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16473968</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5676,12 +5676,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5721,12 +5721,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5766,12 +5766,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CM SUPERSTORE LTD</t>
+          <t>THE MINDSHIFT METHOD LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16473152</t>
+          <t>16473330</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5811,12 +5811,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>THE WOMENS PT ACADEMY LIMITED</t>
+          <t>AHED ABDEL HAMID LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16473285</t>
+          <t>16473226</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RAQT SPORTS LTD</t>
+          <t>GREEN HILL ADVISORY LIMITED</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16473167</t>
+          <t>16473162</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>47190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
+          <t>BIKER GEARS LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16473294</t>
+          <t>16473293</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>56102,88910</t>
+          <t>45310,46420,47910</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5946,12 +5946,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
+          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16473282</t>
+          <t>16473327</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>41202,43310,43910</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5991,12 +5991,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CARYS PLANT LTD</t>
+          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16473056</t>
+          <t>16473116</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>96090</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6036,12 +6036,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AWEXIA LTD</t>
+          <t>RUNLATES LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16473430</t>
+          <t>16473402</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>93130</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6081,12 +6081,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ELECTRIC SAFE LTD</t>
+          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16473300</t>
+          <t>16473159</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>43210,47540</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6126,12 +6126,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>FINTHOS LTD</t>
+          <t>BA SELLERS LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NI729773</t>
+          <t>16473060</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6171,12 +6171,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
+          <t>PINK PEGASUS BOOKSHOP LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16473074</t>
+          <t>16473346</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>47110,47190,47220</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6216,12 +6216,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NAILD LTD</t>
+          <t>NEXA CLEANING LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16473286</t>
+          <t>16473345</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>63120</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6261,12 +6261,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ZARI TRAVELS LTD</t>
+          <t>LOWENKRAFT LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16473080</t>
+          <t>16473061</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>49320,79110</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6306,12 +6306,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MUM STUDIO LTD</t>
+          <t>LONDON DUUKA UK LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16473150</t>
+          <t>16473044</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>47910,47990</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6351,12 +6351,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HESSE HEATING LIMITED</t>
+          <t>ATLANTIS DESIGN LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16473431</t>
+          <t>16473155</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>43220</t>
+          <t>47910,74100</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6396,12 +6396,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VINED ME LTD</t>
+          <t>PANADENT LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16473118</t>
+          <t>16473302</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>46342,47250</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6441,12 +6441,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SKILLS 4 CAREERS LTD</t>
+          <t>SR CASH AND CARRY LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16473283</t>
+          <t>16473399</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>46310,46390,46900,47250</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6486,12 +6486,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>GARDEN MAINTENANCE SERVICES LTD</t>
+          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16473369</t>
+          <t>SC849740</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6531,12 +6531,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LUX CATALOGUE LTD</t>
+          <t>BOBBINS BAKES LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16473367</t>
+          <t>16473350</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>10920</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6576,12 +6576,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
+          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16473418</t>
+          <t>16473106</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6612,29 +6612,21 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>88910</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DN TRAINING LTD</t>
+          <t>AAA PORTFOLIO LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16473154</t>
+          <t>16473079</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6665,7 +6657,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>85590</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6674,12 +6666,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>M DIAB LTD</t>
+          <t>DB HEALTH LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16473153</t>
+          <t>16473401</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6710,7 +6702,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>56101,56102,56290,56302</t>
+          <t>65120</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6719,12 +6711,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CWPG GROUNDWORKS LTD</t>
+          <t>DOMAINO6 LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16473363</t>
+          <t>16473156</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6755,7 +6747,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>81300</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6764,12 +6756,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CASA DUNMAR LTD</t>
+          <t>HAUS OF HOUNDS LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SC849728</t>
+          <t>16473404</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6800,7 +6792,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>14190</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6809,12 +6801,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ERSA MEDICAL UK LTD</t>
+          <t>KHEDMAT LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16473148</t>
+          <t>16473362</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6845,7 +6837,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>46900,47749</t>
+          <t>79110</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6854,12 +6846,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
+          <t>MONCHERRI LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NI729770</t>
+          <t>16473339</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6890,7 +6882,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>68100,81210</t>
+          <t>14142,46420,47710</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6899,12 +6891,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>KAYA SPECIALIST CARE LTD</t>
+          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16473112</t>
+          <t>16473397</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6935,7 +6927,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>86220</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6944,12 +6936,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SILJENA LTD</t>
+          <t>ALISHA ZANIB LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16473291</t>
+          <t>16473403</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6980,7 +6972,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>62090,73110,74100</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6989,12 +6981,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
+          <t>RASTA REALTY LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16473328</t>
+          <t>16473325</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7020,34 +7012,26 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>64306,70229</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Activities of real estate investment trusts</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>UK-regulated REIT companies.</t>
-        </is>
-      </c>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>S SINGH BUILDER LTD</t>
+          <t>STUDIO11 CONTENT LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16473306</t>
+          <t>16473066</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7078,7 +7062,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>41202</t>
+          <t>73110</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7087,12 +7071,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FORSTER PRODUCTIONS LTD</t>
+          <t>BRIDGEWICK PARTNERS LIMITED</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16473303</t>
+          <t>16473142</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7118,26 +7102,34 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>90010</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+          <t>64999</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Financial intermediation not elsewhere classified</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SILENTSTACKS LIMITED</t>
+          <t>THESAFETYSAVVY LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16473308</t>
+          <t>16473135</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7168,7 +7160,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7177,12 +7169,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PAF PROPERTY LTD</t>
+          <t>RMS FINANCE CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16473259</t>
+          <t>16473232</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7213,7 +7205,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7222,12 +7214,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
+          <t>LAMONT BUILDS LIMITED</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16473256</t>
+          <t>16473230</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7258,7 +7250,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>41201,41202,71111</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7267,12 +7259,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
+          <t>MARMIMI HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16473263</t>
+          <t>16473234</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7303,21 +7295,29 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>49320</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GAUNT CAPITAL LTD</t>
+          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16473262</t>
+          <t>16473242</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7343,34 +7343,26 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>47730</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CLEAN CULT LIMITED</t>
+          <t>JOHN HUGHES DECS LIMITED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16473120</t>
+          <t>SC849734</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7401,7 +7393,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>43341</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7410,12 +7402,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RR DRAINAGE SERVICES LTD</t>
+          <t>TG BARGAIN LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16473164</t>
+          <t>16473326</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7446,7 +7438,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7455,12 +7447,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>UYR GOODS LIMITED</t>
+          <t>NOAH PRO LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16473039</t>
+          <t>16473344</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7491,7 +7483,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7500,12 +7492,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AMBERSTAR LANDSCAPES LTD</t>
+          <t>TMB SCAFFOLDING LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16473052</t>
+          <t>16473163</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7536,7 +7528,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>71112</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7545,12 +7537,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>REVYN BEAUTY LTD</t>
+          <t>PLATINUM MARKETING LONDON LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16473059</t>
+          <t>16473396</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7581,7 +7573,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>47750</t>
+          <t>70229,73110</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7590,12 +7582,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RENOPLUMB LTD</t>
+          <t>AGC STEEL LIMITED</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16473045</t>
+          <t>NI729774</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7626,7 +7618,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>41201,41202,43220</t>
+          <t>25110</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -7635,12 +7627,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RC RIGGERS LTD</t>
+          <t>NEUBO LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16473048</t>
+          <t>16473395</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7671,7 +7663,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>90020</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7680,12 +7672,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HORIZON RESOURCING LTD</t>
+          <t>STAGEPAPER LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16473058</t>
+          <t>16473057</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7716,7 +7708,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>78109</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7725,12 +7717,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TOBIN85 LTD</t>
+          <t>METAL &amp; MYTH LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16473284</t>
+          <t>16473064</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7761,7 +7753,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7770,12 +7762,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NAYCĦ COLLECTIVE LTD</t>
+          <t>S K Y LOUNGE COV LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16473119</t>
+          <t>16473289</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7806,7 +7798,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>46160,47710,47820,47910</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7815,12 +7807,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
+          <t>CEDRIC PROPERTY LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16473137</t>
+          <t>SC849737</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7851,7 +7843,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>47789</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7860,12 +7852,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TLJ INVESTMENT LTD</t>
+          <t>ADELINA INFRA LIMITED</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16473151</t>
+          <t>16473147</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7891,12 +7883,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>41100,55100,68100</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7905,12 +7897,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>THE DISLEY GROUP LTD</t>
+          <t>MCPHILLIPS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16473398</t>
+          <t>SC849745</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7941,29 +7933,21 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>41201,41202,43999</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
+          <t>NASWILL HOMES LIMITED</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16473038</t>
+          <t>16473347</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7994,7 +7978,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>68100,68209,68320</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8003,12 +7987,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ENLAB LIMITED</t>
+          <t>CWPG GROUNDWORKS LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16473427</t>
+          <t>16473363</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8039,7 +8023,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8048,12 +8032,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RASTA REALTY LTD</t>
+          <t>ENLAB LIMITED</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16473325</t>
+          <t>16473427</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8084,7 +8068,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>62020</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8093,12 +8077,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NASWILL HOMES LIMITED</t>
+          <t>ZARI TRAVELS LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16473347</t>
+          <t>16473080</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8129,7 +8113,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>49320,79110</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8138,12 +8122,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HAUS OF HOUNDS LTD</t>
+          <t>CASA DUNMAR LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16473404</t>
+          <t>SC849728</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8174,7 +8158,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8183,12 +8167,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DB HEALTH LTD</t>
+          <t>M DIAB LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16473401</t>
+          <t>16473153</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8219,7 +8203,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>65120</t>
+          <t>56101,56102,56290,56302</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8228,12 +8212,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>AAA PORTFOLIO LTD</t>
+          <t>DN TRAINING LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16473079</t>
+          <t>16473154</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8264,7 +8248,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8273,12 +8257,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ABC STUDIO CHILDCARE PLUS LTD</t>
+          <t>INTERCONTINENTAL HOLDING COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16473106</t>
+          <t>16473418</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8309,21 +8293,29 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>88910</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BOBBINS BAKES LIMITED</t>
+          <t>LUX CATALOGUE LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16473350</t>
+          <t>16473367</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8354,7 +8346,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8363,12 +8355,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TQ HEALTH FITNESS AND WELL-BEING LTD</t>
+          <t>GARDEN MAINTENANCE SERVICES LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SC849740</t>
+          <t>16473369</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8399,7 +8391,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>85510</t>
+          <t>81300</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8408,12 +8400,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SR CASH AND CARRY LTD</t>
+          <t>SKILLS 4 CAREERS LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16473399</t>
+          <t>16473283</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8444,7 +8436,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>46310,46390,46900,47250</t>
+          <t>85590</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8453,12 +8445,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>NEXA CLEANING LTD</t>
+          <t>VINED ME LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16473345</t>
+          <t>16473118</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8489,7 +8481,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>46342,47250</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8498,12 +8490,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PANADENT LTD</t>
+          <t>HESSE HEATING LIMITED</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16473302</t>
+          <t>16473431</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8534,7 +8526,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>86230</t>
+          <t>43220</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8543,12 +8535,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ATLANTIS DESIGN LTD</t>
+          <t>MUM STUDIO LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16473155</t>
+          <t>16473150</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8579,7 +8571,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8588,12 +8580,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LONDON DUUKA UK LTD</t>
+          <t>NAILD LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16473044</t>
+          <t>16473286</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8624,7 +8616,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>63120</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8633,12 +8625,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LOWENKRAFT LTD</t>
+          <t>ACHILLE CONSTRUCTION SERVICE LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16473061</t>
+          <t>16473038</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8669,7 +8661,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>82990</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8678,12 +8670,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PINK PEGASUS BOOKSHOP LTD</t>
+          <t>SAINTS HALAL SUPERMARKET LIMITED</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16473346</t>
+          <t>16473074</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8714,7 +8706,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>47610</t>
+          <t>47110,47190,47220</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8723,12 +8715,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BA SELLERS LTD</t>
+          <t>FINTHOS LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16473060</t>
+          <t>NI729773</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8759,7 +8751,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8768,12 +8760,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>QUALITY AND COMPLIANCE CONSULTANCY SERVICES LTD</t>
+          <t>ELECTRIC SAFE LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16473159</t>
+          <t>16473300</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8804,7 +8796,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43210,47540</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8813,12 +8805,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RUNLATES LTD</t>
+          <t>AWEXIA LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16473402</t>
+          <t>16473430</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8849,7 +8841,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8858,12 +8850,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BLUEPRINT CONTENT STUDIOS LIMITED</t>
+          <t>CARYS PLANT LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16473116</t>
+          <t>16473056</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8894,7 +8886,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>96090</t>
+          <t>86900</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8903,12 +8895,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PINK FLAMINGO HOLDINGS LIMITED</t>
+          <t>AMS CONSTRUCTION CHESHIRE LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16473327</t>
+          <t>16473282</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8939,7 +8931,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>41202,43310,43910</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -8948,12 +8940,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BIKER GEARS LTD</t>
+          <t>GIGGLE GARDEN PLAY CAFE LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16473293</t>
+          <t>16473294</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8984,7 +8976,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>45310,46420,47910</t>
+          <t>56102,88910</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -8993,12 +8985,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GREEN HILL ADVISORY LIMITED</t>
+          <t>RAQT SPORTS LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16473162</t>
+          <t>16473167</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9029,7 +9021,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>47190</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9038,12 +9030,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AHED ABDEL HAMID LTD</t>
+          <t>THE WOMENS PT ACADEMY LIMITED</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16473226</t>
+          <t>16473285</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9074,7 +9066,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9083,12 +9075,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>THE MINDSHIFT METHOD LTD</t>
+          <t>CM SUPERSTORE LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16473330</t>
+          <t>16473152</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9119,7 +9111,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>47910,47990</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9128,12 +9120,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>KHEDMAT LTD</t>
+          <t>ERSA MEDICAL UK LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16473362</t>
+          <t>16473148</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9164,7 +9156,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>79110</t>
+          <t>46900,47749</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9173,12 +9165,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>DOMAINO6 LTD</t>
+          <t>JETMAR PROPERTY &amp; SERVICES LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16473156</t>
+          <t>NI729770</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9209,7 +9201,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>68100,81210</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9218,12 +9210,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ELITE PROPERTIES &amp; HOUSING LTD</t>
+          <t>KAYA SPECIALIST CARE LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16473397</t>
+          <t>16473112</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9254,7 +9246,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>68100,68209,68320</t>
+          <t>86220</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9263,12 +9255,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ALISHA ZANIB LTD</t>
+          <t>SILJENA LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16473403</t>
+          <t>16473291</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9299,7 +9291,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>62090,73110,74100</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9308,12 +9300,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MCPHILLIPS CONSTRUCTION LTD</t>
+          <t>THE DISLEY GROUP LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SC849745</t>
+          <t>16473398</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9344,21 +9336,29 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>41201,41202,43999</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ADELINA INFRA LIMITED</t>
+          <t>TLJ INVESTMENT LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16473147</t>
+          <t>16473151</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9384,12 +9384,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>71122</t>
+          <t>41100,55100,68100</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9398,12 +9398,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CEDRIC PROPERTY LTD</t>
+          <t>BITSNBOBS THE 3D PRINT SHOP LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SC849737</t>
+          <t>16473137</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9443,12 +9443,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>S K Y LOUNGE COV LTD</t>
+          <t>NAYCĦ COLLECTIVE LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16473289</t>
+          <t>16473119</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>56102</t>
+          <t>46160,47710,47820,47910</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9488,12 +9488,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>METAL &amp; MYTH LTD</t>
+          <t>TOBIN85 LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16473064</t>
+          <t>16473284</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9533,12 +9533,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>STAGEPAPER LTD</t>
+          <t>HORIZON RESOURCING LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16473057</t>
+          <t>16473058</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>82990</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9578,12 +9578,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>NEUBO LTD</t>
+          <t>RC RIGGERS LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16473395</t>
+          <t>16473048</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>90020</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -9623,12 +9623,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AGC STEEL LIMITED</t>
+          <t>RENOPLUMB LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NI729774</t>
+          <t>16473045</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>41201,41202,43220</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -9668,12 +9668,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>PLATINUM MARKETING LONDON LTD</t>
+          <t>REVYN BEAUTY LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16473396</t>
+          <t>16473059</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>70229,73110</t>
+          <t>47750</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -9713,12 +9713,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MONCHERRI LTD</t>
+          <t>AMBERSTAR LANDSCAPES LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16473339</t>
+          <t>16473052</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>14142,46420,47710</t>
+          <t>71112</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -9758,12 +9758,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TMB SCAFFOLDING LTD</t>
+          <t>UYR GOODS LIMITED</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16473163</t>
+          <t>16473039</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9794,7 +9794,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>43991</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J207" t="inlineStr"/>
@@ -9803,12 +9803,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>NOAH PRO LTD</t>
+          <t>RR DRAINAGE SERVICES LTD</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16473344</t>
+          <t>16473164</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
@@ -9848,12 +9848,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TG BARGAIN LTD</t>
+          <t>CLEAN CULT LIMITED</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16473326</t>
+          <t>16473120</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>81210</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -9893,12 +9893,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>JOHN HUGHES DECS LIMITED</t>
+          <t>GAUNT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SC849734</t>
+          <t>16473262</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9924,26 +9924,34 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>43341</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Activities of other holding companies n.e.c.</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HEALTH &amp; WELLNESS MEDICA CLINIC LTD</t>
+          <t>AIRPORT TR4NSPORT SPECI4LISTS LIMITED</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16473242</t>
+          <t>16473263</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9974,7 +9982,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>47730</t>
+          <t>49320</t>
         </is>
       </c>
       <c r="J211" t="inlineStr"/>
@@ -9983,12 +9991,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MARMIMI HOLDING LIMITED</t>
+          <t>THE PAINTMAN AUTO REPAIRS LTD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16473234</t>
+          <t>16473256</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10019,29 +10027,21 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>45200</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>LAMONT BUILDS LIMITED</t>
+          <t>PAF PROPERTY LTD</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16473230</t>
+          <t>16473259</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>41201,41202,71111</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J213" t="inlineStr"/>
@@ -10081,12 +10081,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RMS FINANCE CONSULTING LIMITED</t>
+          <t>SILENTSTACKS LIMITED</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16473232</t>
+          <t>16473308</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>46190</t>
         </is>
       </c>
       <c r="J214" t="inlineStr"/>
@@ -10126,12 +10126,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>THESAFETYSAVVY LTD</t>
+          <t>FORSTER PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16473135</t>
+          <t>16473303</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>90010</t>
         </is>
       </c>
       <c r="J215" t="inlineStr"/>
@@ -10171,12 +10171,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BRIDGEWICK PARTNERS LIMITED</t>
+          <t>S SINGH BUILDER LTD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16473142</t>
+          <t>16473306</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10202,34 +10202,26 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>64999</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Financial intermediation not elsewhere classified</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>Catch-all credit-oriented SPVs for novel lending structures.</t>
-        </is>
-      </c>
+          <t>41202</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>STUDIO11 CONTENT LTD</t>
+          <t>AJ INVESTMENT AND CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16473066</t>
+          <t>16473328</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10255,16 +10247,24 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>73110</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+          <t>64306,70229</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Activities of real estate investment trusts</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>UK-regulated REIT companies.</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">

--- a/docs/assets/data/master_companies.xlsx
+++ b/docs/assets/data/master_companies.xlsx
@@ -538,12 +538,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KNOLA LTD</t>
+          <t>EXPLORE THERAPY LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16473764</t>
+          <t>16473794</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>99999</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J&amp;F STUDIOS LTD</t>
+          <t>GLOBAL LETTING AND MAINTENANCE LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16473474</t>
+          <t>16473561</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>74201,74209</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRAWFORD HS LIMITED</t>
+          <t>BOON AFRO-CARIBBEAN HAIR LOUNGE LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16473818</t>
+          <t>16473551</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>74909</t>
+          <t>47789</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NFGU COACHING LTD</t>
+          <t>BURY LODGE FARM &amp; SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16473802</t>
+          <t>16473568</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>01300,01500</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GD PROPERTY GROUP LIMITED</t>
+          <t>SAGA STUDIO LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16473525</t>
+          <t>16473564</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>68100</t>
+          <t>74100</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WELCOME MART LTD</t>
+          <t>OSTIA GROUP LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16473757</t>
+          <t>16473905</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MJE FACILITIES CONSULTANCY LTD</t>
+          <t>DISTINGUISH SISTERS LIMITED LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16473821</t>
+          <t>16473470</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>84120,86900,87200</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANT CARS LTD</t>
+          <t>AEVA MEDICAL LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16473814</t>
+          <t>16473575</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>49320</t>
+          <t>86220,86900,96020</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PURPLE LAVENDER SERVICES LTD</t>
+          <t>PANOLUX CREATIVE LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16473825</t>
+          <t>16473840</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>74202</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOULMATEEN LTD</t>
+          <t>NIVADO SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16473493</t>
+          <t>16473521</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>46160,46190</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TAMWORTH GARAGE LTD</t>
+          <t>A JOLLY DIME LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16473498</t>
+          <t>16473846</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JCD ROOFS LIMITED</t>
+          <t>OFFICIALNEPTUNETRADING LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16473495</t>
+          <t>16473795</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VILA BRITTAIN MANAGEMENT SERVICES LTD</t>
+          <t>COMPASS HOUSING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16473534</t>
+          <t>16473554</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1123,12 +1123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NALLA PROPERTIES LTD</t>
+          <t>AARM RELIABLE LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16473538</t>
+          <t>16473680</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>68100,68201,68209,68320</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AWRAH PROTECTION LTD</t>
+          <t>FJ COURIERS LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16474033</t>
+          <t>16473483</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22:24:36</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>80100</t>
+          <t>82920</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JEVOIR LTD</t>
+          <t>MUHAMMAD HAMZA LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16473540</t>
+          <t>16473685</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>47710</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AXELFIT SYSTEMS LTD</t>
+          <t>LONDON PROPERTY SERVICES (BMR) LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16473762</t>
+          <t>16473763</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>33200,42990,43290</t>
+          <t>81100</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BEHIND THE GLASS WINDOWS, DOORS &amp; GLAZING LTD</t>
+          <t>ONLYVANS GROUP LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16473852</t>
+          <t>16473675</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>43342</t>
+          <t>49410,49420</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>REBUILD FITNESS &amp; WELLNESS LTD</t>
+          <t>NK.SARANG LIMITED</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16473851</t>
+          <t>16473677</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>93130</t>
+          <t>46499</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NEXCHAIN TECHNOLOGIES LTD</t>
+          <t>GENCO REALTY LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16473847</t>
+          <t>SC849765</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>N.K. PROPERTY SOLUTIONS LTD</t>
+          <t>AESTHETIC STUDIOS LONDON LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16473848</t>
+          <t>16473630</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>55209,68209,68310,87900</t>
+          <t>59112,74201,90030</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NAE BAD SPUD LTD</t>
+          <t>INFUSION DANCE LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SC849792</t>
+          <t>SC849766</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BACALUTAPROPERTYSOLUTION LTD</t>
+          <t>BURE VALLEY PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16473482</t>
+          <t>16473632</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>55209,68209,68320</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TRUE POLYGON HOLDINGS LTD</t>
+          <t>STUDIO TRUE NORTH LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SC849753</t>
+          <t>16473631</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>96020</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1618,12 +1618,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SHYFTABLE LTD</t>
+          <t>TREACLE RIGGING LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16473820</t>
+          <t>16473633</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>86900</t>
+          <t>43991</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MURRAY'S COFFEE LTD</t>
+          <t>MOSSWOOD PROPERTY LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16473717</t>
+          <t>16473592</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10832,56103,56210</t>
+          <t>55100</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECOPOWER RENEWABLE SOLUTIONS LTD</t>
+          <t>DAILY DASH STORE LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SC849780</t>
+          <t>16473569</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47110</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CARDIUM CONSULTANCY LTD</t>
+          <t>JULIAN FRANCIS LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16473858</t>
+          <t>16473523</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>70229</t>
+          <t>38320</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GTS ACCOUNTANCY LTD</t>
+          <t>PRIMIERA LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16473686</t>
+          <t>16473974</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>69201</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MWB RENEWABLES LTD</t>
+          <t>GANDER INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16473843</t>
+          <t>16473515</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>68100,68209</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JUSTGOTYOU LTD</t>
+          <t>THE BUNKER LEVEN LIMITED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16473542</t>
+          <t>SC849768</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>47910,74100</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>COMPASS PROPERTY SERVICES LIMITED</t>
+          <t>DELAN CUILEY LIMITED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16473902</t>
+          <t>NI729778</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>46210,46341,47910</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ANYTHING4FOOD LTD</t>
+          <t>WWFD CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16473901</t>
+          <t>16473591</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASRO ACADEMY LTD</t>
+          <t>BUNCE E-COMMERCE LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16473968</t>
+          <t>16473683</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20:36:33</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>85600</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2068,12 +2068,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GEOME LTD</t>
+          <t>RUGER CONSULTING LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SC849793</t>
+          <t>16473547</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18:27:11</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>72190</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ELMWOOD PROPERTY MANAGEMENT AND LETTINGS LIMITED</t>
+          <t>ROUSE SHARP LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16473574</t>
+          <t>16473550</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>68209,68320</t>
+          <t>41100,68209</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2158,12 +2158,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MZOF LTD</t>
+          <t>MOHAMED MOHAMED TM LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16473719</t>
+          <t>16474030</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>59111</t>
+          <t>43120</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2203,12 +2203,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MINI PRINT FACTORY LTD</t>
+          <t>KGJ TM LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16473759</t>
+          <t>16474031</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>43120</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VICTORY NINE LTD</t>
+          <t>HAMOO LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16473475</t>
+          <t>SC849802</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>22:24:36</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>73110</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2293,12 +2293,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ROLLERCOASTER BUILDING COMPANY LTD</t>
+          <t>KNOLA LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16473798</t>
+          <t>16473764</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>68209</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NIKKOLEE LTD</t>
+          <t>MIXT ACADEMY LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SC849775</t>
+          <t>16473912</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>18110,58110,58130</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2383,12 +2383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MIGHTY FORTRESS ESTATES LTD</t>
+          <t>EMERALD TUTORS LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16473513</t>
+          <t>16473963</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>68209</t>
+          <t>85600</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2428,12 +2428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FLAMINGOWORX LTD</t>
+          <t>DARCYBROOK LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16473973</t>
+          <t>16473587</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>18:02:31</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>74100</t>
+          <t>78109</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2473,12 +2473,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NA GLOBAL LIMITED</t>
+          <t>JANSEV ESTATES LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16473758</t>
+          <t>16473970</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18:02:31</t>
+          <t>20:36:33</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>41201,41202</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R&amp;H KHUSHI LTD</t>
+          <t>WOW BUBBLES BARNSLEY LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16473718</t>
+          <t>16473572</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2563,12 +2563,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ROKSEE LIMITED</t>
+          <t>ZEENUNGOS LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16473563</t>
+          <t>16473674</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>87100</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SSMARTTEC LTD</t>
+          <t>HOUSE OF SAFFRON LIMITED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16473466</t>
+          <t>16473645</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>61200,62020</t>
+          <t>70229</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2653,12 +2653,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HOLLY LARKHAM CARE LTD</t>
+          <t>SDT GLOBAL SERVICES LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16473517</t>
+          <t>16473808</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>87300</t>
+          <t>47190,69201,70229,71122</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EL RESALES LTD</t>
+          <t>NOTHING SOUNDS GOOD LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SC849752</t>
+          <t>16473566</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>47630</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2743,12 +2743,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TAP &amp; WASH LTD</t>
+          <t>RESONANCE TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16473555</t>
+          <t>16473822</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>81299</t>
+          <t>71129</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2788,12 +2788,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SEVEN (HOLDCO) LIMITED</t>
+          <t>JAMBURI LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16473606</t>
+          <t>16473543</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2824,29 +2824,21 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>64209</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Activities of other holding companies n.e.c.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Catch-all SPV: protected cells, cell companies, bespoke feeder vehicles.</t>
-        </is>
-      </c>
+          <t>56103</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CLARITY HOME HUB HEALTH LTD</t>
+          <t>IACO PROPERTY 